--- a/validation/Проверка_dataset.xlsx
+++ b/validation/Проверка_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yura\Desktop\Date_set_gen_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48925091-6F97-4095-82BF-589B9A08FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D82CAB-AD31-4609-9094-62CAA2E49621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="15615" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OFR_101" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="58">
   <si>
     <t>W 1</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>DynamicModel:Base_02.04</t>
-  </si>
-  <si>
-    <t>FIELD</t>
-  </si>
-  <si>
-    <t>Накопл. газ, млрд. ст.м3</t>
   </si>
   <si>
     <t>Дебит газа, тыс. ст.м3/сут</t>
@@ -209,16 +203,28 @@
   <si>
     <t>DynamicModel:e1_v00134_1</t>
   </si>
+  <si>
+    <t>^2</t>
+  </si>
+  <si>
+    <t>^3</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00,,,"/>
     <numFmt numFmtId="167" formatCode="0.00,,"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -323,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -360,6 +366,9 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -658,7 +667,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>OFR_101!$K$2:$K$3</c:f>
+              <c:f>OFR_101!$L$2:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -673,7 +682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OFR_101!$L$2:$L$3</c:f>
+              <c:f>OFR_101!$M$2:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1403,7 +1412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3B003FE-7BF1-4335-9D5F-67EF01D3DD4C}" type="CELLRANGE">
+                    <a:fld id="{54585E58-BD9C-40CE-9353-B1CC80FDDD09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1436,8 +1445,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81C972D8-08D7-4ECF-8A09-3EE4D1715099}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{AD42913A-1746-41C7-9838-A17D174CC65D}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1455,6 +1464,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1469,8 +1479,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C077D034-4DBC-4C19-AFCA-3D716FB1C9C7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{08EAB9C6-1F0C-4124-9119-3E8C94FE88AD}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1488,6 +1498,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1508,7 +1519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49A3D3A4-C54A-4FF4-BFF7-F83FC4D5603E}" type="CELLRANGE">
+                    <a:fld id="{C32A5A67-F2EB-4B3D-A925-96EA15477688}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1541,8 +1552,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F08272E1-008C-4BC6-87B8-3AB05F835B01}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F2D5BCE6-4E21-44ED-A011-3AB761B00F88}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1560,6 +1571,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1574,8 +1586,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{202D84A2-12C9-4E6E-992C-0B9194953B2C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{46E6C8EE-DDC2-4C4C-9362-244EC644C29B}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1593,6 +1605,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1613,7 +1626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC4B7EFE-EA82-4011-B129-99C249851AFF}" type="CELLRANGE">
+                    <a:fld id="{D7334BC4-0B5F-4501-B283-71196F1881CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1646,8 +1659,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89D806F0-99DC-43F9-AB37-06E0B7E61264}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{89B7FB2F-1B27-45B0-A6EF-F2C69CDEA529}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1665,6 +1678,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1685,7 +1699,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80B2506A-BEB5-4ECE-BFB7-3024AEC47D13}" type="CELLRANGE">
+                    <a:fld id="{5DEAF56B-4D2E-443B-B741-68828AA51C92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1724,7 +1738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E8F27BE-8A6C-4F79-8725-39BCC59C680C}" type="CELLRANGE">
+                    <a:fld id="{B1E18E00-663E-4AF6-AB25-1F05EE9767DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1757,8 +1771,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{334C15BE-9D1F-4A6F-BC91-C4519DF91148}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F0AAAA60-387E-437F-BF7C-8B2296DF6042}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1776,6 +1790,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1796,7 +1811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7FCE99F-84E1-4FEC-A4AB-FB6443988A13}" type="CELLRANGE">
+                    <a:fld id="{4C4D47E3-A75D-4B71-BE42-ACC2ABBE0A40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1835,7 +1850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88E47F67-612B-47F1-9B41-6B90D93C5E50}" type="CELLRANGE">
+                    <a:fld id="{59A29AB8-1A3E-4B08-BE51-CED0689184B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -1868,8 +1883,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC71644D-0B7C-48BD-A5B8-5C0A56AEF5CE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{818BDE25-2BF0-4E1A-AD1E-4D4012993E72}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1887,6 +1902,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1901,8 +1917,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5E79D19-CEC2-4CE2-B017-37E4EA8C3DA2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{483ED151-70A2-4DC7-B31C-3B2EBC7FD8CD}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1920,6 +1936,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1934,8 +1951,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CBB8639-C257-400E-BF71-B58BC762AEE4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FDA7FED6-7F72-4031-BB6D-9E8F1280978A}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1953,6 +1970,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1967,8 +1985,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06428080-E8A9-4326-84EB-9790F1D07C17}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9FDE027B-C1EB-4050-BBCB-F96BBE4A12AE}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -1986,6 +2004,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2000,8 +2019,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2D23FA9-C4F0-45C1-92E9-C9367C2D9685}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6E805A94-8863-4029-87EB-66898706A7F3}" type="CELLRANGE">
+                      <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
                     </a:fld>
@@ -2019,6 +2038,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2146,7 +2166,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OFR_101!$M$2:$M$19</c:f>
+              <c:f>OFR_101!$N$2:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2211,7 +2231,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>OFR_101!$N$2:$N$19</c15:f>
+                <c15:f>OFR_101!$O$2:$O$19</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="18"/>
                   <c:pt idx="0">
@@ -2717,7 +2737,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2873,7 +2893,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3029,7 +3049,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3185,7 +3205,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3341,7 +3361,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3468,6 +3488,164 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-769C-4369-8E29-A31CCA24AFE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFR_101!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>norm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OFR_101!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.6221702378931202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9089065910937683E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7796677571845254E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6779729695583448E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7564630133312929E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6283489204929225E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2229770364165755E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2923363912748765E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5835721952707173E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7551897470331149E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7940148217988825E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6686351007651341E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1781111353939922E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.861950189230262E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1035861117670918E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6021996770517175E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3131270919592327E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2507710124844323E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7082-4A66-A60B-3570C11B1CBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3515,7 +3693,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3684,7 +3862,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OFR_101!$N$2:$N$19</c:f>
+              <c:f>OFR_101!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -4448,7 +4626,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>OFR_102!$K$2:$K$3</c:f>
+              <c:f>OFR_102!$L$2:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4463,7 +4641,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OFR_102!$L$2:$L$3</c:f>
+              <c:f>OFR_102!$M$2:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5238,7 +5416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C22D3904-0CC0-46C0-B2B2-3262468DF95E}" type="CELLRANGE">
+                    <a:fld id="{8520A2A5-7DE2-44C0-94D3-D57041B88BCD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5271,7 +5449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E53921AD-9F20-4F38-84B4-BCCBBFB75848}" type="CELLRANGE">
+                    <a:fld id="{222DDC07-3812-4F03-ABBA-581A4B43ECE6}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5305,7 +5483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{831E34FD-BF1F-4B1A-BFEB-C7E0D4AD2C29}" type="CELLRANGE">
+                    <a:fld id="{6CBCA699-37BA-4612-8318-725075FB81AF}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5345,7 +5523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14614C36-FF4E-4204-9E06-FC273FDD0803}" type="CELLRANGE">
+                    <a:fld id="{4A0A75C3-68D3-4C86-BF30-56871402CFCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5378,7 +5556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E67FE138-1A00-43C3-96A6-6155EBF3EBC9}" type="CELLRANGE">
+                    <a:fld id="{215B9747-2A16-426E-B07B-B0931C869E49}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5412,7 +5590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26B8CF49-8B32-4F7A-B81A-884F9A8C62DA}" type="CELLRANGE">
+                    <a:fld id="{36BC7BE1-B2F9-4A48-BFB6-E51F6D4129D7}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5452,7 +5630,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CC8E2B0-73B0-484B-B8DA-3B8180962E55}" type="CELLRANGE">
+                    <a:fld id="{429479F4-2A50-4430-B7E6-B76F663EB730}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5485,7 +5663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{725980DB-BC5C-4E8F-AE34-E53BE1314B95}" type="CELLRANGE">
+                    <a:fld id="{A8A04410-D6DE-4E45-A62D-9ABEF6EC9FA8}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5525,7 +5703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16AEB6B3-F2A0-4931-932E-8849E41E2C99}" type="CELLRANGE">
+                    <a:fld id="{67DAB560-1EF1-447F-BC5E-277A7F7B1498}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5564,7 +5742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{946BE236-68AE-4D58-BC82-4FB431166631}" type="CELLRANGE">
+                    <a:fld id="{B706472B-F243-4593-A94E-47A385CE353A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5597,7 +5775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3542FF9-5ABF-4BE4-8D13-3F6DBA8F7B0C}" type="CELLRANGE">
+                    <a:fld id="{E78A7365-A4D0-4B46-9A47-E52E04D96748}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5637,7 +5815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D442814E-71D7-4B16-9D43-B244CBDBB03A}" type="CELLRANGE">
+                    <a:fld id="{FD0A0B5D-4856-45E6-9783-0318E7FB9EA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5676,7 +5854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6A85CA2-32CD-4EAC-AF5F-CF414F42289B}" type="CELLRANGE">
+                    <a:fld id="{E51AD762-C015-498C-8E5D-17BE8B1C3D57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5709,7 +5887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B76C84F3-6351-4A22-81C9-8F69F062D780}" type="CELLRANGE">
+                    <a:fld id="{63514280-E52D-4FA8-A812-F4467D31BB09}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5743,7 +5921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26B7B890-0A59-43DA-AB0B-50F131534E3F}" type="CELLRANGE">
+                    <a:fld id="{ADC05804-2611-42CA-AF3A-050DA8B922DF}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5777,7 +5955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0ABE6032-4C60-4589-97C6-9F210D1C3D2A}" type="CELLRANGE">
+                    <a:fld id="{0F601DCC-632A-4586-9560-2AB6C90FF3C7}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5811,7 +5989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C9E1EA2-3537-4DBC-99CB-E066CFAD2BCC}" type="CELLRANGE">
+                    <a:fld id="{0861A7F9-B8A7-446C-84D1-1729A30DABC9}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5845,7 +6023,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1FB0838-1CC1-40F2-8A59-5D224AE69695}" type="CELLRANGE">
+                    <a:fld id="{E35CF8E5-C5E0-43BC-98B4-72998DE7532C}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5879,7 +6057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D864722-8E21-44E4-B170-9A947C2A1036}" type="CELLRANGE">
+                    <a:fld id="{73CFDAED-7C33-40F9-8CB0-5547FD0CC05F}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -5913,7 +6091,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CD53CB3-5555-4AC0-917E-519FF6A3E0C3}" type="CELLRANGE">
+                    <a:fld id="{31884B89-C0C3-4A94-BF34-80B168E66FB8}" type="CELLRANGE">
                       <a:rPr lang="ru-RU"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -6066,7 +6244,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OFR_102!$M$2:$M$21</c:f>
+              <c:f>OFR_102!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6137,7 +6315,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>OFR_102!$N$2:$N$21</c15:f>
+                <c15:f>OFR_102!$O$2:$O$21</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
@@ -6649,7 +6827,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6817,7 +6995,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6985,7 +7163,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7153,7 +7331,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7321,7 +7499,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7460,6 +7638,346 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F232-4045-9D79-FB4D28509BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFR_102!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OFR_102!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1093779962512028E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7683900459425831E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6795587396645668E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5678638284317407E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3271289518739755E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14785747294329551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3077453606208279E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3544496559438913E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5769959841475797E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6572199113017523E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9036905972625039E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8867071249854832E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9365863013859261E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.664731872366813E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1145701073245969E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7405226925251957E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0144335928162826E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8617207228566734E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8311955482559158E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9113636717129231E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D54-465F-8955-982C6E99CBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFR_102!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>norm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OFR_102!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.9196916785678236E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7389435457705083E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3113880331512356E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0956652769145625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5876108562747856E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1349708699271944E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0921845172359382E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1310650899284179E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2519725332332692E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.646664334043283E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9806488657340919E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.935527706751512E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2006246399009963E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6834757652129549E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3936917979872344E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.963859795980448E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4129114321454487E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1403491112430318E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0441572260093229E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.33459692398792E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D54-465F-8955-982C6E99CBDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7507,7 +8025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7692,7 +8210,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OFR_102!$N$2:$N$21</c:f>
+              <c:f>OFR_102!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -8101,7 +8619,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="5"/>
+        <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -10525,14 +11043,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>416420</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10829,18 +11347,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="4" t="s">
         <v>18</v>
@@ -10863,10 +11383,13 @@
       <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>3.7601968001438078E-2</v>
@@ -10889,22 +11412,26 @@
       <c r="H2" s="9">
         <v>5.478959845097936E-2</v>
       </c>
-      <c r="K2" s="1">
-        <v>-0.1</v>
+      <c r="I2" s="9">
+        <v>4.6221702378931202E-2</v>
       </c>
       <c r="L2" s="1">
         <v>-0.1</v>
       </c>
       <c r="M2" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N2" s="1">
         <v>0.01</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
+      <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8">
         <v>4.6333028832361144E-2</v>
@@ -10927,22 +11454,26 @@
       <c r="H3" s="9">
         <v>5.5776820312308503E-2</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="I3" s="9">
+        <v>5.9089065910937683E-2</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>0.01</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>2</v>
       </c>
+      <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8">
         <v>2.1390342215610442E-2</v>
@@ -10965,16 +11496,20 @@
       <c r="H4" s="9">
         <v>5.5274706394250542E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="I4" s="9">
+        <v>4.7796677571845254E-2</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.01</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>3</v>
       </c>
+      <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8">
         <v>6.4758860789558906E-2</v>
@@ -10997,16 +11532,20 @@
       <c r="H5" s="9">
         <v>5.5505151334487406E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="I5" s="9">
+        <v>6.6779729695583448E-2</v>
+      </c>
+      <c r="N5" s="1">
         <v>0.01</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>4</v>
       </c>
+      <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8">
         <v>6.7150346102779465E-2</v>
@@ -11029,16 +11568,20 @@
       <c r="H6" s="9">
         <v>5.5476615634860303E-2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="I6" s="9">
+        <v>5.7564630133312929E-2</v>
+      </c>
+      <c r="N6" s="1">
         <v>0.01</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>5</v>
       </c>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8">
         <v>3.7670350300176493E-2</v>
@@ -11061,16 +11604,20 @@
       <c r="H7" s="9">
         <v>5.5696503985960231E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="I7" s="9">
+        <v>5.6283489204929225E-2</v>
+      </c>
+      <c r="N7" s="1">
         <v>0.01</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>6</v>
       </c>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8">
         <v>4.7355044200123195E-2</v>
@@ -11093,16 +11640,20 @@
       <c r="H8" s="9">
         <v>5.4304055223618433E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="I8" s="9">
+        <v>5.2229770364165755E-2</v>
+      </c>
+      <c r="N8" s="1">
         <v>0.01</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>7</v>
       </c>
+      <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>4.8314893277457666E-2</v>
@@ -11125,16 +11676,20 @@
       <c r="H9" s="9">
         <v>5.5884270254216745E-2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="I9" s="9">
+        <v>4.2923363912748765E-2</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.01</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>8</v>
       </c>
+      <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>5.6976584997469701E-2</v>
@@ -11157,16 +11712,20 @@
       <c r="H10" s="9">
         <v>5.5757000529764573E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="I10" s="9">
+        <v>4.5835721952707173E-2</v>
+      </c>
+      <c r="N10" s="1">
         <v>0.01</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>9</v>
       </c>
+      <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <v>6.8567577197321844E-2</v>
@@ -11189,17 +11748,21 @@
       <c r="H11" s="9">
         <v>5.5552154671612543E-2</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="1">
+      <c r="I11" s="9">
+        <v>6.7551897470331149E-2</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="1">
         <v>0.01</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>10</v>
       </c>
+      <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8">
         <v>7.0103520386399137E-2</v>
@@ -11222,17 +11785,21 @@
       <c r="H12" s="9">
         <v>5.6070313429258001E-2</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="1">
+      <c r="I12" s="9">
+        <v>5.7940148217988825E-2</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1">
         <v>0.01</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>11</v>
       </c>
+      <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="8">
         <v>3.8745809482697208E-2</v>
@@ -11255,17 +11822,21 @@
       <c r="H13" s="9">
         <v>5.5819502911706544E-2</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1">
+      <c r="I13" s="9">
+        <v>5.6686351007651341E-2</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1">
         <v>0.01</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>12</v>
       </c>
+      <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8">
         <v>3.0281454344599359E-2</v>
@@ -11288,17 +11859,21 @@
       <c r="H14" s="9">
         <v>5.557417789197356E-2</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="1">
+      <c r="I14" s="9">
+        <v>4.1781111353939922E-2</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1">
         <v>0.01</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>13</v>
       </c>
+      <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8">
         <v>9.4718564420039286E-2</v>
@@ -11321,17 +11896,21 @@
       <c r="H15" s="9">
         <v>5.6096562430116931E-2</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1">
+      <c r="I15" s="9">
+        <v>6.861950189230262E-2</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1">
         <v>0.01</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>14</v>
       </c>
+      <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8">
         <v>9.348632677356894E-2</v>
@@ -11354,17 +11933,21 @@
       <c r="H16" s="9">
         <v>5.5745601284508575E-2</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1">
+      <c r="I16" s="9">
+        <v>6.1035861117670918E-2</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1">
         <v>0.01</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>15</v>
       </c>
+      <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8">
         <v>5.4049937365738418E-2</v>
@@ -11387,17 +11970,21 @@
       <c r="H17" s="9">
         <v>5.5596274203969211E-2</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1">
+      <c r="I17" s="9">
+        <v>5.6021996770517175E-2</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1">
         <v>0.01</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>16</v>
       </c>
+      <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8">
         <v>5.309113489838943E-2</v>
@@ -11420,17 +12007,21 @@
       <c r="H18" s="9">
         <v>5.5435590268145207E-2</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1">
+      <c r="I18" s="9">
+        <v>5.3131270919592327E-2</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1">
         <v>0.01</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>17</v>
       </c>
+      <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8">
         <v>6.940425641427142E-2</v>
@@ -11453,17 +12044,21 @@
       <c r="H19" s="9">
         <v>5.5645100788263603E-2</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="1">
+      <c r="I19" s="9">
+        <v>6.2507710124844323E-2</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1">
         <v>0.01</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>18</v>
       </c>
+      <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="10">
         <v>60687719429.305099</v>
@@ -11486,18 +12081,21 @@
       <c r="H20" s="11">
         <v>60319180320.599899</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="I20" s="11">
+        <v>60253146648.909103</v>
+      </c>
+      <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="12">
         <f>(B20/$H$20-1)*100</f>
         <v>0.61098162598760553</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:G21" si="0">(C20/$H$20-1)*100</f>
+        <f t="shared" ref="C21:I21" si="0">(C20/$H$20-1)*100</f>
         <v>0.2529778969109886</v>
       </c>
       <c r="D21" s="12">
@@ -11517,29 +12115,33 @@
         <v>0.83165047430855399</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.1094737550142777</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L28" s="2"/>
     </row>
     <row r="57" spans="4:22" x14ac:dyDescent="0.2">
@@ -11735,58 +12337,58 @@
     </row>
     <row r="62" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="4:22" x14ac:dyDescent="0.2">
@@ -14210,8 +14812,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B20:H20">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B20:I20">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14222,8 +14824,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:H21">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B21:I21">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14244,20 +14846,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B7879E-87A5-480A-B717-F5055102437C}">
-  <dimension ref="A1:AW106"/>
+  <dimension ref="A1:AX106"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="4" t="s">
         <v>18</v>
@@ -14280,31 +14886,19 @@
       <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>3.1728135549010515E-2</v>
@@ -14322,50 +14916,40 @@
         <v>3.8496627813980389E-2</v>
       </c>
       <c r="G2" s="8">
-        <f>HLOOKUP(A2,$AD$59:$AW$60,2,FALSE)</f>
+        <f>HLOOKUP(A2,$AE$59:$AX$60,2,FALSE)</f>
         <v>5.1760797673608156E-3</v>
       </c>
       <c r="H2" s="9">
-        <f>HLOOKUP(A2,$E$59:$X$60,2,FALSE)</f>
+        <f>HLOOKUP(A2,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9807221433846895E-2</v>
       </c>
-      <c r="K2" s="1">
-        <v>-0.1</v>
+      <c r="I2" s="9">
+        <v>1.9177502674793241E-2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1.1093779962512028E-2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3.9196916785678236E-2</v>
       </c>
       <c r="L2" s="1">
         <v>-0.1</v>
       </c>
       <c r="M2" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N2" s="1">
         <v>0.01</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8">
         <v>6.0700887943531671E-2</v>
@@ -14383,50 +14967,40 @@
         <v>4.4772479614416071E-2</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G21" si="0">HLOOKUP(A3,$AD$59:$AW$60,2,FALSE)</f>
+        <f t="shared" ref="G3:G21" si="0">HLOOKUP(A3,$AE$59:$AX$60,2,FALSE)</f>
         <v>4.5676962986321484E-2</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H21" si="1">HLOOKUP(A3,$E$59:$X$60,2,FALSE)</f>
+        <f>HLOOKUP(A3,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9214271503186927E-2</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="I3" s="9">
+        <v>7.0192875765142881E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>7.7683900459425831E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>4.7389435457705083E-2</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>0.01</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8">
         <v>6.2986950884882306E-2</v>
@@ -14448,43 +15022,31 @@
         <v>4.6816323254764043E-2</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A4,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0359565166138182E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="I4" s="9">
+        <v>7.5579518003694057E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8.6795587396645668E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6.3113880331512356E-2</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.01</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="2">
-        <v>62094</v>
-      </c>
-      <c r="S4" s="1">
-        <v>62015191669.851799</v>
-      </c>
-      <c r="T4" s="1">
-        <v>62682619675.162903</v>
-      </c>
-      <c r="U4" s="1">
-        <v>61999925142.731598</v>
-      </c>
-      <c r="V4" s="1">
-        <v>62123385199.751198</v>
-      </c>
-      <c r="W4" s="1">
-        <v>62087456817.447601</v>
-      </c>
-      <c r="X4" s="1">
-        <v>62205148202.555</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>62107858769.882599</v>
-      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8">
         <v>4.1970296078630294E-2</v>
@@ -14506,19 +15068,30 @@
         <v>2.6298568163036023E-3</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A5,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9814197057343981E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="I5" s="9">
+        <v>3.3557300221764841E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2.5678638284317407E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4.0956652769145625E-2</v>
+      </c>
+      <c r="N5" s="1">
         <v>0.01</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>4</v>
       </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8">
         <v>4.5755283175978913E-2</v>
@@ -14540,19 +15113,30 @@
         <v>1.4798621996039013E-2</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A6,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0220124531642422E-2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="I6" s="9">
+        <v>3.9882781801875475E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.3271289518739755E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5.5876108562747856E-2</v>
+      </c>
+      <c r="N6" s="1">
         <v>0.01</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>5</v>
       </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8">
         <v>7.5225623517739024E-2</v>
@@ -14574,19 +15158,30 @@
         <v>1.7841194303687347E-2</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A7,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0413126132853335E-2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="I7" s="9">
+        <v>0.10780391668721234</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.14785747294329551</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7.1349708699271944E-2</v>
+      </c>
+      <c r="N7" s="1">
         <v>0.01</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>6</v>
       </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8">
         <v>3.3516533834221249E-2</v>
@@ -14608,19 +15203,30 @@
         <v>1.0501163845845865E-2</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A8,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9553552474048329E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="I8" s="9">
+        <v>2.1400363269263825E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1.3077453606208279E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4.0921845172359382E-2</v>
+      </c>
+      <c r="N8" s="1">
         <v>0.01</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>7</v>
       </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>4.0773798518929281E-2</v>
@@ -14642,19 +15248,30 @@
         <v>6.3400200791811162E-2</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A9,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0128375767889186E-2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="I9" s="9">
+        <v>3.1671256427767087E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2.3544496559438913E-2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4.1310650899284179E-2</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.01</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>8</v>
       </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>4.2019990538730609E-2</v>
@@ -14676,19 +15293,30 @@
         <v>7.6647137487373729E-2</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A10,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0451656687258324E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="I10" s="9">
+        <v>3.3636813560076639E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2.5769959841475797E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5.2519725332332692E-2</v>
+      </c>
+      <c r="N10" s="1">
         <v>0.01</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>9</v>
       </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <v>5.4611703471692113E-2</v>
@@ -14710,20 +15338,31 @@
         <v>3.4739895404263692E-2</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A11,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0044466585416905E-2</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="1">
+      <c r="I11" s="9">
+        <v>5.6816489205369823E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>5.6572199113017523E-2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4.646664334043283E-2</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="1">
         <v>0.01</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>10</v>
       </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8">
         <v>3.7985410547937866E-2</v>
@@ -14745,20 +15384,31 @@
         <v>6.4771141217847161E-2</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A12,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0229802756382419E-2</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="1">
+      <c r="I12" s="9">
+        <v>2.7487585722128987E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1.9036905972625039E-2</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.9806488657340919E-2</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1">
         <v>0.01</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>11</v>
       </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="8">
         <v>4.3640087337393135E-2</v>
@@ -14780,20 +15430,31 @@
         <v>2.0635547848924352E-2</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A13,$E$59:$Y$60,2,FALSE)</f>
         <v>5.037248603322049E-2</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1">
+      <c r="I13" s="9">
+        <v>3.62805756832165E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2.8867071249854832E-2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.935527706751512E-2</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1">
         <v>0.01</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>12</v>
       </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8">
         <v>5.8452079683749228E-2</v>
@@ -14815,20 +15476,31 @@
         <v>7.8171931477262729E-2</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A14,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0213759221560725E-2</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="1">
+      <c r="I14" s="9">
+        <v>6.5088293131892697E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>6.9365863013859261E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>5.2006246399009963E-2</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1">
         <v>0.01</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>13</v>
       </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8">
         <v>3.6324485180563318E-2</v>
@@ -14850,20 +15522,31 @@
         <v>6.5027849321399392E-2</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A15,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9114756451547892E-2</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1">
+      <c r="I15" s="9">
+        <v>2.5136330801039809E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1.664731872366813E-2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4.6834757652129549E-2</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1">
         <v>0.01</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>14</v>
       </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8">
         <v>5.6045405101335717E-2</v>
@@ -14885,20 +15568,31 @@
         <v>0.10338395214248552</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A16,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0016397220850342E-2</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1">
+      <c r="I16" s="9">
+        <v>5.9838813376499288E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.1145701073245969E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>5.3936917979872344E-2</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1">
         <v>0.01</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>15</v>
       </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8">
         <v>5.789608911142527E-2</v>
@@ -14920,20 +15614,31 @@
         <v>1.988693658673768E-2</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A17,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9972067792820068E-2</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1">
+      <c r="I17" s="9">
+        <v>6.385595488548379E-2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.7405226925251957E-2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>5.963859795980448E-2</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1">
         <v>0.01</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>16</v>
       </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8">
         <v>5.8669930312415242E-2</v>
@@ -14955,20 +15660,32 @@
         <v>4.188953286405326E-2</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A18,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0149766594194678E-2</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1">
+      <c r="I18" s="9">
+        <v>6.5574364770996901E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>7.0144335928162826E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>5.4129114321454487E-2</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1">
         <v>0.01</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>17</v>
       </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+      <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8">
         <v>5.8241030280472228E-2</v>
@@ -14990,20 +15707,31 @@
         <v>9.6001890629173081E-2</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A19,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9927541904676701E-2</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="1">
+      <c r="I19" s="9">
+        <v>6.4619120910824793E-2</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.8617207228566734E-2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5.1403491112430318E-2</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1">
         <v>0.01</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>18</v>
       </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="8">
         <v>5.5165882692216048E-2</v>
@@ -15025,20 +15753,31 @@
         <v>9.6001890629173081E-2</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A20,$E$59:$Y$60,2,FALSE)</f>
         <v>5.0281703148410614E-2</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="1">
+      <c r="I20" s="9">
+        <v>5.7975444975449333E-2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>5.8311955482559158E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>5.0441572260093229E-2</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1">
         <v>0.01</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>19</v>
       </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8">
         <v>4.8290396239146029E-2</v>
@@ -15060,20 +15799,31 @@
         <v>9.6001890629173081E-2</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(A21,$E$59:$Y$60,2,FALSE)</f>
         <v>4.9715161536711842E-2</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="1">
+      <c r="I21" s="9">
+        <v>4.4424698125507964E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>3.9113636717129231E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>5.33459692398792E-2</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1">
         <v>0.01</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>20</v>
       </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="10">
         <v>62107858769.882599</v>
@@ -15096,63 +15846,85 @@
       <c r="H22" s="11">
         <v>62015191669.851799</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="I22" s="11">
+        <v>62037943856.180603</v>
+      </c>
+      <c r="J22" s="11">
+        <v>62134041814.411301</v>
+      </c>
+      <c r="K22" s="11">
+        <v>62096255749.325996</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="12">
         <f>(B22/$H$22-1)*100</f>
         <v>0.14942645106077457</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:G23" si="2">(C22/$H$22-1)*100</f>
+        <f t="shared" ref="C23:K23" si="1">(C22/$H$22-1)*100</f>
         <v>0.30630645102971421</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1165281371385829</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1744629452657076</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.4617398913273636E-2</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0762330766697747</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>3.6688085154890082E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.19164682291432644</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.13071648622124954</v>
+      </c>
+      <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L24" s="2"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L25" s="2"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L26" s="2"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L27" s="2"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L28" s="2"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L29" s="2"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L30" s="2"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M30" s="2"/>
     </row>
-    <row r="59" spans="5:49" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:50" x14ac:dyDescent="0.2">
       <c r="E59" s="2" t="s">
         <v>0</v>
       </c>
@@ -15171,360 +15943,361 @@
       <c r="J59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="P59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="R59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="T59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="1" t="s">
+      <c r="V59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="Y59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="1" t="s">
+      <c r="AE59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF59" s="1" t="s">
+      <c r="AG59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG59" s="1" t="s">
+      <c r="AH59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AH59" s="1" t="s">
+      <c r="AI59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI59" s="1" t="s">
+      <c r="AJ59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AJ59" s="1" t="s">
+      <c r="AK59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK59" s="1" t="s">
+      <c r="AL59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AL59" s="1" t="s">
+      <c r="AM59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AM59" s="1" t="s">
+      <c r="AN59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AN59" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AO59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AP59" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AQ59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR59" s="1" t="s">
+      <c r="AS59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AS59" s="1" t="s">
+      <c r="AT59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AT59" s="1" t="s">
+      <c r="AU59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AU59" s="1" t="s">
+      <c r="AV59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AV59" s="1" t="s">
+      <c r="AW59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AW59" s="1" t="s">
+      <c r="AX59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="5:49" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:50" x14ac:dyDescent="0.2">
       <c r="E60" s="3">
-        <f>SUM(E66:E68)/SUM($E$66:$X$68)</f>
+        <f>SUM(E66:E68)/SUM($E$66:$Y$68)</f>
         <v>4.9807221433846895E-2</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" ref="F60:X60" si="3">SUM(F66:F68)/SUM($E$66:$X$68)</f>
+        <f t="shared" ref="F60:Y60" si="2">SUM(F66:F68)/SUM($E$66:$Y$68)</f>
         <v>5.0044466585416905E-2</v>
       </c>
       <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0229802756382419E-2</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.037248603322049E-2</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0213759221560725E-2</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9114756451547892E-2</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0016397220850342E-2</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9972067792820068E-2</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0149766594194678E-2</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9927541904676701E-2</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0281703148410614E-2</v>
+      </c>
+      <c r="Q60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9214271503186927E-2</v>
+      </c>
+      <c r="R60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9715161536711842E-2</v>
+      </c>
+      <c r="S60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0359565166138182E-2</v>
+      </c>
+      <c r="T60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9814197057343981E-2</v>
+      </c>
+      <c r="U60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0220124531642422E-2</v>
+      </c>
+      <c r="V60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0413126132853335E-2</v>
+      </c>
+      <c r="W60" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9553552474048329E-2</v>
+      </c>
+      <c r="X60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0128375767889186E-2</v>
+      </c>
+      <c r="Y60" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0451656687258324E-2</v>
+      </c>
+      <c r="Z60" s="3"/>
+      <c r="AE60" s="3">
+        <f>SUM(AE67)/SUM($AE$67:$AX$67)</f>
+        <v>5.1760797673608156E-3</v>
+      </c>
+      <c r="AF60" s="3">
+        <f t="shared" ref="AF60:AX60" si="3">SUM(AF67)/SUM($AE$67:$AX$67)</f>
+        <v>3.4739895404263692E-2</v>
+      </c>
+      <c r="AG60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0229802756382419E-2</v>
-      </c>
-      <c r="H60" s="3">
+        <v>6.4771141217847161E-2</v>
+      </c>
+      <c r="AH60" s="3">
         <f t="shared" si="3"/>
-        <v>5.037248603322049E-2</v>
-      </c>
-      <c r="I60" s="3">
+        <v>2.0635547848924352E-2</v>
+      </c>
+      <c r="AI60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0213759221560725E-2</v>
-      </c>
-      <c r="J60" s="3">
+        <v>7.8171931477262729E-2</v>
+      </c>
+      <c r="AJ60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9114756451547892E-2</v>
-      </c>
-      <c r="K60" s="3">
+        <v>6.5027849321399392E-2</v>
+      </c>
+      <c r="AK60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0016397220850342E-2</v>
-      </c>
-      <c r="L60" s="3">
+        <v>0.10338395214248552</v>
+      </c>
+      <c r="AL60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9972067792820068E-2</v>
-      </c>
-      <c r="M60" s="3">
+        <v>1.988693658673768E-2</v>
+      </c>
+      <c r="AM60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0149766594194678E-2</v>
-      </c>
-      <c r="N60" s="3">
+        <v>4.188953286405326E-2</v>
+      </c>
+      <c r="AN60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9927541904676701E-2</v>
-      </c>
-      <c r="O60" s="3">
+        <v>9.6001890629173081E-2</v>
+      </c>
+      <c r="AO60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0281703148410614E-2</v>
-      </c>
-      <c r="P60" s="3">
+        <v>9.6001890629173081E-2</v>
+      </c>
+      <c r="AP60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9214271503186927E-2</v>
-      </c>
-      <c r="Q60" s="3">
+        <v>4.5676962986321484E-2</v>
+      </c>
+      <c r="AQ60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9715161536711842E-2</v>
-      </c>
-      <c r="R60" s="3">
+        <v>9.6001890629173081E-2</v>
+      </c>
+      <c r="AR60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0359565166138182E-2</v>
-      </c>
-      <c r="S60" s="3">
+        <v>4.6816323254764043E-2</v>
+      </c>
+      <c r="AS60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9814197057343981E-2</v>
-      </c>
-      <c r="T60" s="3">
+        <v>2.6298568163036023E-3</v>
+      </c>
+      <c r="AT60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0220124531642422E-2</v>
-      </c>
-      <c r="U60" s="3">
+        <v>1.4798621996039013E-2</v>
+      </c>
+      <c r="AU60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0413126132853335E-2</v>
-      </c>
-      <c r="V60" s="3">
+        <v>1.7841194303687347E-2</v>
+      </c>
+      <c r="AV60" s="3">
         <f t="shared" si="3"/>
-        <v>4.9553552474048329E-2</v>
-      </c>
-      <c r="W60" s="3">
+        <v>1.0501163845845865E-2</v>
+      </c>
+      <c r="AW60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0128375767889186E-2</v>
-      </c>
-      <c r="X60" s="3">
+        <v>6.3400200791811162E-2</v>
+      </c>
+      <c r="AX60" s="3">
         <f t="shared" si="3"/>
-        <v>5.0451656687258324E-2</v>
-      </c>
-      <c r="Y60" s="3"/>
-      <c r="AD60" s="3">
-        <f>SUM(AD67)/SUM($AD$67:$AW$67)</f>
+        <v>7.6647137487373729E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:50" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <f>SUM(AE67:AE69)/SUM($AE$67:$AX$69)</f>
         <v>5.1760797673608156E-3</v>
       </c>
-      <c r="AE60" s="3">
-        <f t="shared" ref="AE60:AW60" si="4">SUM(AE67)/SUM($AD$67:$AW$67)</f>
-        <v>3.4739895404263692E-2</v>
-      </c>
-      <c r="AF60" s="3">
+      <c r="AF61" s="3">
+        <f t="shared" ref="AF61:AX61" si="4">SUM(AF67:AF69)/SUM($AE$67:$AX$69)</f>
+        <v>3.4739895404263699E-2</v>
+      </c>
+      <c r="AG61" s="3">
         <f t="shared" si="4"/>
         <v>6.4771141217847161E-2</v>
       </c>
-      <c r="AG60" s="3">
+      <c r="AH61" s="3">
         <f t="shared" si="4"/>
         <v>2.0635547848924352E-2</v>
       </c>
-      <c r="AH60" s="3">
+      <c r="AI61" s="3">
         <f t="shared" si="4"/>
-        <v>7.8171931477262729E-2</v>
-      </c>
-      <c r="AI60" s="3">
+        <v>7.8171931477262743E-2</v>
+      </c>
+      <c r="AJ61" s="3">
         <f t="shared" si="4"/>
         <v>6.5027849321399392E-2</v>
       </c>
-      <c r="AJ60" s="3">
+      <c r="AK61" s="3">
         <f t="shared" si="4"/>
-        <v>0.10338395214248552</v>
-      </c>
-      <c r="AK60" s="3">
+        <v>0.10338395214248554</v>
+      </c>
+      <c r="AL61" s="3">
         <f t="shared" si="4"/>
-        <v>1.988693658673768E-2</v>
-      </c>
-      <c r="AL60" s="3">
+        <v>1.9886936586737684E-2</v>
+      </c>
+      <c r="AM61" s="3">
         <f t="shared" si="4"/>
         <v>4.188953286405326E-2</v>
       </c>
-      <c r="AM60" s="3">
+      <c r="AN61" s="3">
         <f t="shared" si="4"/>
         <v>9.6001890629173081E-2</v>
       </c>
-      <c r="AN60" s="3">
+      <c r="AO61" s="3">
         <f t="shared" si="4"/>
         <v>9.6001890629173081E-2</v>
       </c>
-      <c r="AO60" s="3">
+      <c r="AP61" s="3">
         <f t="shared" si="4"/>
         <v>4.5676962986321484E-2</v>
       </c>
-      <c r="AP60" s="3">
+      <c r="AQ61" s="3">
         <f t="shared" si="4"/>
         <v>9.6001890629173081E-2</v>
       </c>
-      <c r="AQ60" s="3">
+      <c r="AR61" s="3">
         <f t="shared" si="4"/>
         <v>4.6816323254764043E-2</v>
       </c>
-      <c r="AR60" s="3">
+      <c r="AS61" s="3">
         <f t="shared" si="4"/>
-        <v>2.6298568163036023E-3</v>
-      </c>
-      <c r="AS60" s="3">
+        <v>2.6298568163036027E-3</v>
+      </c>
+      <c r="AT61" s="3">
         <f t="shared" si="4"/>
         <v>1.4798621996039013E-2</v>
       </c>
-      <c r="AT60" s="3">
+      <c r="AU61" s="3">
         <f t="shared" si="4"/>
         <v>1.7841194303687347E-2</v>
       </c>
-      <c r="AU60" s="3">
+      <c r="AV61" s="3">
         <f t="shared" si="4"/>
         <v>1.0501163845845865E-2</v>
       </c>
-      <c r="AV60" s="3">
+      <c r="AW61" s="3">
         <f t="shared" si="4"/>
         <v>6.3400200791811162E-2</v>
       </c>
-      <c r="AW60" s="3">
+      <c r="AX61" s="3">
         <f t="shared" si="4"/>
         <v>7.6647137487373729E-2</v>
       </c>
     </row>
-    <row r="61" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="AD61" s="3">
-        <f>SUM(AD67:AD69)/SUM($AD$67:$AW$69)</f>
-        <v>5.1760797673608156E-3</v>
-      </c>
-      <c r="AE61" s="3">
-        <f t="shared" ref="AE61:AW61" si="5">SUM(AE67:AE69)/SUM($AD$67:$AW$69)</f>
-        <v>3.4739895404263699E-2</v>
-      </c>
-      <c r="AF61" s="3">
-        <f t="shared" si="5"/>
-        <v>6.4771141217847161E-2</v>
-      </c>
-      <c r="AG61" s="3">
-        <f t="shared" si="5"/>
-        <v>2.0635547848924352E-2</v>
-      </c>
-      <c r="AH61" s="3">
-        <f t="shared" si="5"/>
-        <v>7.8171931477262743E-2</v>
-      </c>
-      <c r="AI61" s="3">
-        <f t="shared" si="5"/>
-        <v>6.5027849321399392E-2</v>
-      </c>
-      <c r="AJ61" s="3">
-        <f t="shared" si="5"/>
-        <v>0.10338395214248554</v>
-      </c>
-      <c r="AK61" s="3">
-        <f t="shared" si="5"/>
-        <v>1.9886936586737684E-2</v>
-      </c>
-      <c r="AL61" s="3">
-        <f t="shared" si="5"/>
-        <v>4.188953286405326E-2</v>
-      </c>
-      <c r="AM61" s="3">
-        <f t="shared" si="5"/>
-        <v>9.6001890629173081E-2</v>
-      </c>
-      <c r="AN61" s="3">
-        <f t="shared" si="5"/>
-        <v>9.6001890629173081E-2</v>
-      </c>
-      <c r="AO61" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5676962986321484E-2</v>
-      </c>
-      <c r="AP61" s="3">
-        <f t="shared" si="5"/>
-        <v>9.6001890629173081E-2</v>
-      </c>
-      <c r="AQ61" s="3">
-        <f t="shared" si="5"/>
-        <v>4.6816323254764043E-2</v>
-      </c>
-      <c r="AR61" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6298568163036027E-3</v>
-      </c>
-      <c r="AS61" s="3">
-        <f t="shared" si="5"/>
-        <v>1.4798621996039013E-2</v>
-      </c>
-      <c r="AT61" s="3">
-        <f t="shared" si="5"/>
-        <v>1.7841194303687347E-2</v>
-      </c>
-      <c r="AU61" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0501163845845865E-2</v>
-      </c>
-      <c r="AV61" s="3">
-        <f t="shared" si="5"/>
-        <v>6.3400200791811162E-2</v>
-      </c>
-      <c r="AW61" s="3">
-        <f t="shared" si="5"/>
-        <v>7.6647137487373729E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="5:49" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:50" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="5:49" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:50" x14ac:dyDescent="0.2">
       <c r="E63" s="2" t="s">
         <v>0</v>
       </c>
@@ -15543,175 +16316,175 @@
       <c r="J63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE63" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="5:50" x14ac:dyDescent="0.2">
+      <c r="E64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R63" s="1" t="s">
+      <c r="AQ64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="AS64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="AT64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U63" s="1" t="s">
+      <c r="AU64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="AV64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="AW64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X63" s="1" t="s">
+      <c r="AX64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD63" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="64" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="E64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW64" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D65" s="2">
         <v>47484</v>
       </c>
@@ -15733,9 +16506,6 @@
       <c r="J65" s="1">
         <v>0</v>
       </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
       <c r="L65" s="1">
         <v>0</v>
       </c>
@@ -15775,68 +16545,71 @@
       <c r="X65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="1" t="s">
-        <v>28</v>
+      <c r="Y65" s="1">
+        <v>0</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AT65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="AX65" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="66" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D66" s="2">
         <v>47849</v>
       </c>
@@ -15858,54 +16631,51 @@
       <c r="J66" s="1">
         <v>161509191.460053</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>164416037.97166401</v>
       </c>
-      <c r="L66" s="1">
+      <c r="M66" s="1">
         <v>164230772.13373399</v>
       </c>
-      <c r="M66" s="1">
+      <c r="N66" s="1">
         <v>164688023.700432</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O66" s="1">
         <v>163988558.991997</v>
       </c>
-      <c r="O66" s="1">
+      <c r="P66" s="1">
         <v>165004092.56023401</v>
       </c>
-      <c r="P66" s="1">
+      <c r="Q66" s="1">
         <v>161836382.21627</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="R66" s="1">
         <v>163195107.871748</v>
       </c>
-      <c r="R66" s="1">
+      <c r="S66" s="1">
         <v>165311249.100896</v>
       </c>
-      <c r="S66" s="1">
+      <c r="T66" s="1">
         <v>163730522.22666001</v>
       </c>
-      <c r="T66" s="1">
+      <c r="U66" s="1">
         <v>164989547.19688001</v>
       </c>
-      <c r="U66" s="1">
+      <c r="V66" s="1">
         <v>165564545.362459</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>162944409.839573</v>
       </c>
-      <c r="W66" s="1">
+      <c r="X66" s="1">
         <v>164662067.07449901</v>
       </c>
-      <c r="X66" s="1">
+      <c r="Y66" s="1">
         <v>165668756.38346899</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AD66" s="2">
         <v>47484</v>
       </c>
-      <c r="AD66" s="1">
-        <v>0</v>
-      </c>
       <c r="AE66" s="1">
         <v>0</v>
       </c>
@@ -15963,8 +16733,11 @@
       <c r="AW66" s="1">
         <v>0</v>
       </c>
+      <c r="AX66" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D67" s="2">
         <v>48214</v>
       </c>
@@ -15986,113 +16759,113 @@
       <c r="J67" s="1">
         <v>322751025.32302701</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>328631115.39674801</v>
       </c>
-      <c r="L67" s="1">
+      <c r="M67" s="1">
         <v>328329146.33975899</v>
       </c>
-      <c r="M67" s="1">
+      <c r="N67" s="1">
         <v>329455710.88038599</v>
       </c>
-      <c r="N67" s="1">
+      <c r="O67" s="1">
         <v>328013603.973167</v>
       </c>
-      <c r="O67" s="1">
+      <c r="P67" s="1">
         <v>330286743.982939</v>
       </c>
-      <c r="P67" s="1">
+      <c r="Q67" s="1">
         <v>323438265.21663398</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="R67" s="1">
         <v>326599682.046785</v>
       </c>
-      <c r="R67" s="1">
+      <c r="S67" s="1">
         <v>330816004.23427999</v>
       </c>
-      <c r="S67" s="1">
+      <c r="T67" s="1">
         <v>327311607.49819201</v>
       </c>
-      <c r="T67" s="1">
+      <c r="U67" s="1">
         <v>329947985.69544601</v>
       </c>
-      <c r="U67" s="1">
+      <c r="V67" s="1">
         <v>331194985.58339697</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>325631437.31566501</v>
       </c>
-      <c r="W67" s="1">
+      <c r="X67" s="1">
         <v>329341199.27080399</v>
       </c>
-      <c r="X67" s="1">
+      <c r="Y67" s="1">
         <v>331442737.71301299</v>
       </c>
-      <c r="AC67" s="2">
+      <c r="AD67" s="2">
         <v>47849</v>
       </c>
-      <c r="AD67" s="1">
+      <c r="AE67" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE67" s="1">
+      <c r="AF67" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AG67" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG67" s="1">
+      <c r="AH67" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH67" s="1">
+      <c r="AI67" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI67" s="1">
+      <c r="AJ67" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ67" s="1">
+      <c r="AK67" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK67" s="1">
+      <c r="AL67" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL67" s="1">
+      <c r="AM67" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM67" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN67" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO67" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP67" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP67" s="1">
+      <c r="AQ67" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ67" s="1">
+      <c r="AR67" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR67" s="1">
+      <c r="AS67" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS67" s="1">
+      <c r="AT67" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT67" s="1">
+      <c r="AU67" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU67" s="1">
+      <c r="AV67" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV67" s="1">
+      <c r="AW67" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW67" s="1">
+      <c r="AX67" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="68" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D68" s="2">
         <v>48580</v>
       </c>
@@ -16114,113 +16887,113 @@
       <c r="J68" s="1">
         <v>484233665.684991</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>493226183.42953402</v>
       </c>
-      <c r="L68" s="1">
+      <c r="M68" s="1">
         <v>492839286.33312398</v>
       </c>
-      <c r="M68" s="1">
+      <c r="N68" s="1">
         <v>494759512.89010501</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O68" s="1">
         <v>492519035.853154</v>
       </c>
-      <c r="O68" s="1">
+      <c r="P68" s="1">
         <v>496214067.840334</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q68" s="1">
         <v>485181572.33843702</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="R68" s="1">
         <v>490538480.423886</v>
       </c>
-      <c r="R68" s="1">
+      <c r="S68" s="1">
         <v>496913012.175901</v>
       </c>
-      <c r="S68" s="1">
+      <c r="T68" s="1">
         <v>491244022.04891199</v>
       </c>
-      <c r="T68" s="1">
+      <c r="U68" s="1">
         <v>495353102.74712902</v>
       </c>
-      <c r="U68" s="1">
+      <c r="V68" s="1">
         <v>497336903.26787698</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>488570654.08051902</v>
       </c>
-      <c r="W68" s="1">
+      <c r="X68" s="1">
         <v>494478175.42170203</v>
       </c>
-      <c r="X68" s="1">
+      <c r="Y68" s="1">
         <v>497744724.11956298</v>
       </c>
-      <c r="AC68" s="2">
+      <c r="AD68" s="2">
         <v>48214</v>
       </c>
-      <c r="AD68" s="1">
+      <c r="AE68" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE68" s="1">
+      <c r="AF68" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF68" s="1">
+      <c r="AG68" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG68" s="1">
+      <c r="AH68" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH68" s="1">
+      <c r="AI68" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI68" s="1">
+      <c r="AJ68" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ68" s="1">
+      <c r="AK68" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK68" s="1">
+      <c r="AL68" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL68" s="1">
+      <c r="AM68" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM68" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN68" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO68" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP68" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP68" s="1">
+      <c r="AQ68" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ68" s="1">
+      <c r="AR68" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR68" s="1">
+      <c r="AS68" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS68" s="1">
+      <c r="AT68" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT68" s="1">
+      <c r="AU68" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU68" s="1">
+      <c r="AV68" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV68" s="1">
+      <c r="AW68" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW68" s="1">
+      <c r="AX68" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="69" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D69" s="2">
         <v>48945</v>
       </c>
@@ -16242,113 +17015,113 @@
       <c r="J69" s="1">
         <v>645189070.35252595</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>657332047.23908997</v>
       </c>
-      <c r="L69" s="1">
+      <c r="M69" s="1">
         <v>656880154.93967497</v>
       </c>
-      <c r="M69" s="1">
+      <c r="N69" s="1">
         <v>659698720.93439698</v>
       </c>
-      <c r="N69" s="1">
+      <c r="O69" s="1">
         <v>656636871.48195803</v>
       </c>
-      <c r="O69" s="1">
+      <c r="P69" s="1">
         <v>661871117.417974</v>
       </c>
-      <c r="P69" s="1">
+      <c r="Q69" s="1">
         <v>645710183.86887598</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="R69" s="1">
         <v>654142795.97257304</v>
       </c>
-      <c r="R69" s="1">
+      <c r="S69" s="1">
         <v>662692126.75944602</v>
       </c>
-      <c r="S69" s="1">
+      <c r="T69" s="1">
         <v>654681585.97982299</v>
       </c>
-      <c r="T69" s="1">
+      <c r="U69" s="1">
         <v>660319992.08718395</v>
       </c>
-      <c r="U69" s="1">
+      <c r="V69" s="1">
         <v>663080536.81056404</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>650958987.42322803</v>
       </c>
-      <c r="W69" s="1">
+      <c r="X69" s="1">
         <v>659197984.94942296</v>
       </c>
-      <c r="X69" s="1">
+      <c r="Y69" s="1">
         <v>663664630.59653902</v>
       </c>
-      <c r="AC69" s="2">
+      <c r="AD69" s="2">
         <v>48580</v>
       </c>
-      <c r="AD69" s="1">
+      <c r="AE69" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE69" s="1">
+      <c r="AF69" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AG69" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG69" s="1">
+      <c r="AH69" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH69" s="1">
+      <c r="AI69" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI69" s="1">
+      <c r="AJ69" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ69" s="1">
+      <c r="AK69" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK69" s="1">
+      <c r="AL69" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL69" s="1">
+      <c r="AM69" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM69" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN69" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO69" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP69" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP69" s="1">
+      <c r="AQ69" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ69" s="1">
+      <c r="AR69" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR69" s="1">
+      <c r="AS69" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS69" s="1">
+      <c r="AT69" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT69" s="1">
+      <c r="AU69" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU69" s="1">
+      <c r="AV69" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV69" s="1">
+      <c r="AW69" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW69" s="1">
+      <c r="AX69" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="70" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D70" s="2">
         <v>49310</v>
       </c>
@@ -16370,113 +17143,113 @@
       <c r="J70" s="1">
         <v>806088723.64825702</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>821497797.94597602</v>
       </c>
-      <c r="L70" s="1">
+      <c r="M70" s="1">
         <v>821013491.343449</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70" s="1">
         <v>824834680.81078398</v>
       </c>
-      <c r="N70" s="1">
+      <c r="O70" s="1">
         <v>820943256.87245095</v>
       </c>
-      <c r="O70" s="1">
+      <c r="P70" s="1">
         <v>827825189.89723802</v>
       </c>
-      <c r="P70" s="1">
+      <c r="Q70" s="1">
         <v>803345472.83875597</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="R70" s="1">
         <v>817973988.82879102</v>
       </c>
-      <c r="R70" s="1">
+      <c r="S70" s="1">
         <v>828738248.95106399</v>
       </c>
-      <c r="S70" s="1">
+      <c r="T70" s="1">
         <v>818199383.68634403</v>
       </c>
-      <c r="T70" s="1">
+      <c r="U70" s="1">
         <v>825426071.22673404</v>
       </c>
-      <c r="U70" s="1">
+      <c r="V70" s="1">
         <v>829002358.51360095</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>813345567.72115195</v>
       </c>
-      <c r="W70" s="1">
+      <c r="X70" s="1">
         <v>824074601.70078099</v>
       </c>
-      <c r="X70" s="1">
+      <c r="Y70" s="1">
         <v>829767596.717664</v>
       </c>
-      <c r="AC70" s="2">
+      <c r="AD70" s="2">
         <v>48945</v>
       </c>
-      <c r="AD70" s="1">
+      <c r="AE70" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE70" s="1">
+      <c r="AF70" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF70" s="1">
+      <c r="AG70" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG70" s="1">
+      <c r="AH70" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH70" s="1">
+      <c r="AI70" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI70" s="1">
+      <c r="AJ70" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ70" s="1">
+      <c r="AK70" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK70" s="1">
+      <c r="AL70" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL70" s="1">
+      <c r="AM70" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM70" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN70" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO70" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP70" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP70" s="1">
+      <c r="AQ70" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ70" s="1">
+      <c r="AR70" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR70" s="1">
+      <c r="AS70" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS70" s="1">
+      <c r="AT70" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT70" s="1">
+      <c r="AU70" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU70" s="1">
+      <c r="AV70" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV70" s="1">
+      <c r="AW70" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW70" s="1">
+      <c r="AX70" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="71" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D71" s="2">
         <v>49675</v>
       </c>
@@ -16498,113 +17271,113 @@
       <c r="J71" s="1">
         <v>966984303.81067502</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>986034833.28119695</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>985535198.44114494</v>
       </c>
-      <c r="M71" s="1">
+      <c r="N71" s="1">
         <v>990512175.27185595</v>
       </c>
-      <c r="N71" s="1">
+      <c r="O71" s="1">
         <v>985773764.01025295</v>
       </c>
-      <c r="O71" s="1">
+      <c r="P71" s="1">
         <v>994468086.15023601</v>
       </c>
-      <c r="P71" s="1">
+      <c r="Q71" s="1">
         <v>951858241.32059097</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="R71" s="1">
         <v>982345347.37823105</v>
       </c>
-      <c r="R71" s="1">
+      <c r="S71" s="1">
         <v>995455153.847175</v>
       </c>
-      <c r="S71" s="1">
+      <c r="T71" s="1">
         <v>982085373.10240602</v>
       </c>
-      <c r="T71" s="1">
+      <c r="U71" s="1">
         <v>991043291.07441294</v>
       </c>
-      <c r="U71" s="1">
+      <c r="V71" s="1">
         <v>995503355.37168097</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>975965336.06294799</v>
       </c>
-      <c r="W71" s="1">
+      <c r="X71" s="1">
         <v>989470275.55469298</v>
       </c>
-      <c r="X71" s="1">
+      <c r="Y71" s="1">
         <v>996455844.59274197</v>
       </c>
-      <c r="AC71" s="2">
+      <c r="AD71" s="2">
         <v>49310</v>
       </c>
-      <c r="AD71" s="1">
+      <c r="AE71" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE71" s="1">
+      <c r="AF71" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF71" s="1">
+      <c r="AG71" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG71" s="1">
+      <c r="AH71" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH71" s="1">
+      <c r="AI71" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI71" s="1">
+      <c r="AJ71" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ71" s="1">
+      <c r="AK71" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK71" s="1">
+      <c r="AL71" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL71" s="1">
+      <c r="AM71" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM71" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN71" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO71" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP71" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP71" s="1">
+      <c r="AQ71" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ71" s="1">
+      <c r="AR71" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR71" s="1">
+      <c r="AS71" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS71" s="1">
+      <c r="AT71" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT71" s="1">
+      <c r="AU71" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU71" s="1">
+      <c r="AV71" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV71" s="1">
+      <c r="AW71" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW71" s="1">
+      <c r="AX71" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="72" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D72" s="2">
         <v>50041</v>
       </c>
@@ -16626,113 +17399,113 @@
       <c r="J72" s="1">
         <v>1125187826.9514201</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>1151305666.33954</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>1150838859.48541</v>
       </c>
-      <c r="M72" s="1">
+      <c r="N72" s="1">
         <v>1158375886.6859601</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
         <v>1152056193.78615</v>
       </c>
-      <c r="O72" s="1">
+      <c r="P72" s="1">
         <v>1164460379.22983</v>
       </c>
-      <c r="P72" s="1">
+      <c r="Q72" s="1">
         <v>1079859453.50179</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="R72" s="1">
         <v>1147816518.69647</v>
       </c>
-      <c r="R72" s="1">
+      <c r="S72" s="1">
         <v>1165624622.7102699</v>
       </c>
-      <c r="S72" s="1">
+      <c r="T72" s="1">
         <v>1146201545.84004</v>
       </c>
-      <c r="T72" s="1">
+      <c r="U72" s="1">
         <v>1158785841.6208799</v>
       </c>
-      <c r="U72" s="1">
+      <c r="V72" s="1">
         <v>1165052774.3354001</v>
       </c>
-      <c r="V72" s="1">
+      <c r="W72" s="1">
         <v>1137422621.8166001</v>
       </c>
-      <c r="W72" s="1">
+      <c r="X72" s="1">
         <v>1156773236.0654099</v>
       </c>
-      <c r="X72" s="1">
+      <c r="Y72" s="1">
         <v>1166268227.2811201</v>
       </c>
-      <c r="AC72" s="2">
+      <c r="AD72" s="2">
         <v>49675</v>
       </c>
-      <c r="AD72" s="1">
+      <c r="AE72" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE72" s="1">
+      <c r="AF72" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF72" s="1">
+      <c r="AG72" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG72" s="1">
+      <c r="AH72" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH72" s="1">
+      <c r="AI72" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI72" s="1">
+      <c r="AJ72" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ72" s="1">
+      <c r="AK72" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK72" s="1">
+      <c r="AL72" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL72" s="1">
+      <c r="AM72" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM72" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN72" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO72" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP72" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP72" s="1">
+      <c r="AQ72" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ72" s="1">
+      <c r="AR72" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR72" s="1">
+      <c r="AS72" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS72" s="1">
+      <c r="AT72" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT72" s="1">
+      <c r="AU72" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU72" s="1">
+      <c r="AV72" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV72" s="1">
+      <c r="AW72" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW72" s="1">
+      <c r="AX72" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="73" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D73" s="2">
         <v>50406</v>
       </c>
@@ -16754,113 +17527,113 @@
       <c r="J73" s="1">
         <v>1282025452.8789501</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>1315961697.27016</v>
       </c>
-      <c r="L73" s="1">
+      <c r="M73" s="1">
         <v>1315624127.28719</v>
       </c>
-      <c r="M73" s="1">
+      <c r="N73" s="1">
         <v>1326407181.4916401</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O73" s="1">
         <v>1318508173.64645</v>
       </c>
-      <c r="O73" s="1">
+      <c r="P73" s="1">
         <v>1335400972.91868</v>
       </c>
-      <c r="P73" s="1">
+      <c r="Q73" s="1">
         <v>1198505540.32759</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="R73" s="1">
         <v>1313500294.6450901</v>
       </c>
-      <c r="R73" s="1">
+      <c r="S73" s="1">
         <v>1336783247.6642201</v>
       </c>
-      <c r="S73" s="1">
+      <c r="T73" s="1">
         <v>1309899795.46824</v>
       </c>
-      <c r="T73" s="1">
+      <c r="U73" s="1">
         <v>1326663217.54368</v>
       </c>
-      <c r="U73" s="1">
+      <c r="V73" s="1">
         <v>1335084061.35783</v>
       </c>
-      <c r="V73" s="1">
+      <c r="W73" s="1">
         <v>1297956072.3085899</v>
       </c>
-      <c r="W73" s="1">
+      <c r="X73" s="1">
         <v>1324195975.5801001</v>
       </c>
-      <c r="X73" s="1">
+      <c r="Y73" s="1">
         <v>1336529827.1261201</v>
       </c>
-      <c r="AC73" s="2">
+      <c r="AD73" s="2">
         <v>50041</v>
       </c>
-      <c r="AD73" s="1">
+      <c r="AE73" s="1">
         <v>46584.717906247301</v>
       </c>
-      <c r="AE73" s="1">
+      <c r="AF73" s="1">
         <v>312659.05863837298</v>
       </c>
-      <c r="AF73" s="1">
+      <c r="AG73" s="1">
         <v>582940.27096062398</v>
       </c>
-      <c r="AG73" s="1">
+      <c r="AH73" s="1">
         <v>185719.93064031901</v>
       </c>
-      <c r="AH73" s="1">
+      <c r="AI73" s="1">
         <v>703547.38329536398</v>
       </c>
-      <c r="AI73" s="1">
+      <c r="AJ73" s="1">
         <v>585250.64389259403</v>
       </c>
-      <c r="AJ73" s="1">
+      <c r="AK73" s="1">
         <v>930455.56928236899</v>
       </c>
-      <c r="AK73" s="1">
+      <c r="AL73" s="1">
         <v>178982.42928063899</v>
       </c>
-      <c r="AL73" s="1">
+      <c r="AM73" s="1">
         <v>377005.795776479</v>
-      </c>
-      <c r="AM73" s="1">
-        <v>864017.01566255698</v>
       </c>
       <c r="AN73" s="1">
         <v>864017.01566255698</v>
       </c>
       <c r="AO73" s="1">
+        <v>864017.01566255698</v>
+      </c>
+      <c r="AP73" s="1">
         <v>411092.66687689302</v>
       </c>
-      <c r="AP73" s="1">
+      <c r="AQ73" s="1">
         <v>864017.01566255698</v>
       </c>
-      <c r="AQ73" s="1">
+      <c r="AR73" s="1">
         <v>421346.90929287602</v>
       </c>
-      <c r="AR73" s="1">
+      <c r="AS73" s="1">
         <v>23668.711346732402</v>
       </c>
-      <c r="AS73" s="1">
+      <c r="AT73" s="1">
         <v>133187.59796435101</v>
       </c>
-      <c r="AT73" s="1">
+      <c r="AU73" s="1">
         <v>160570.74873318599</v>
       </c>
-      <c r="AU73" s="1">
+      <c r="AV73" s="1">
         <v>94510.474612612699</v>
       </c>
-      <c r="AV73" s="1">
+      <c r="AW73" s="1">
         <v>570601.80712629994</v>
       </c>
-      <c r="AW73" s="1">
+      <c r="AX73" s="1">
         <v>689824.23738636298</v>
       </c>
     </row>
-    <row r="74" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D74" s="2">
         <v>50771</v>
       </c>
@@ -16882,113 +17655,113 @@
       <c r="J74" s="1">
         <v>1445366932.8845799</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>1484492099.4663799</v>
       </c>
-      <c r="L74" s="1">
+      <c r="M74" s="1">
         <v>1484307062.4865501</v>
       </c>
-      <c r="M74" s="1">
+      <c r="N74" s="1">
         <v>1498035515.97856</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
         <v>1489057293.61553</v>
       </c>
-      <c r="O74" s="1">
+      <c r="P74" s="1">
         <v>1509994340.97018</v>
       </c>
-      <c r="P74" s="1">
+      <c r="Q74" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="R74" s="1">
         <v>1483408200.0985601</v>
       </c>
-      <c r="R74" s="1">
+      <c r="S74" s="1">
         <v>1511777954.59038</v>
       </c>
-      <c r="S74" s="1">
+      <c r="T74" s="1">
         <v>1478055398.88484</v>
       </c>
-      <c r="T74" s="1">
+      <c r="U74" s="1">
         <v>1498332918.8889799</v>
       </c>
-      <c r="U74" s="1">
+      <c r="V74" s="1">
         <v>1508757098.8935699</v>
       </c>
-      <c r="V74" s="1">
+      <c r="W74" s="1">
         <v>1463786015.6124201</v>
       </c>
-      <c r="W74" s="1">
+      <c r="X74" s="1">
         <v>1495470650.09657</v>
       </c>
-      <c r="X74" s="1">
+      <c r="Y74" s="1">
         <v>1510131236.0246201</v>
       </c>
-      <c r="AC74" s="2">
+      <c r="AD74" s="2">
         <v>50406</v>
       </c>
-      <c r="AD74" s="1">
+      <c r="AE74" s="1">
         <v>48814.411996196599</v>
       </c>
-      <c r="AE74" s="1">
+      <c r="AF74" s="1">
         <v>327623.92451172799</v>
       </c>
-      <c r="AF74" s="1">
+      <c r="AG74" s="1">
         <v>610841.66299159406</v>
       </c>
-      <c r="AG74" s="1">
+      <c r="AH74" s="1">
         <v>194609.08249840001</v>
       </c>
-      <c r="AH74" s="1">
+      <c r="AI74" s="1">
         <v>737221.41875244305</v>
       </c>
-      <c r="AI74" s="1">
+      <c r="AJ74" s="1">
         <v>613262.61778610398</v>
       </c>
-      <c r="AJ74" s="1">
+      <c r="AK74" s="1">
         <v>974990.15867206105</v>
       </c>
-      <c r="AK74" s="1">
+      <c r="AL74" s="1">
         <v>187549.102702918</v>
       </c>
-      <c r="AL74" s="1">
+      <c r="AM74" s="1">
         <v>395050.50297876803</v>
-      </c>
-      <c r="AM74" s="1">
-        <v>905371.64267383504</v>
       </c>
       <c r="AN74" s="1">
         <v>905371.64267383504</v>
       </c>
       <c r="AO74" s="1">
-        <v>0</v>
+        <v>905371.64267383504</v>
       </c>
       <c r="AP74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="1">
         <v>905371.64267383504</v>
       </c>
-      <c r="AQ74" s="1">
+      <c r="AR74" s="1">
         <v>441513.92447925999</v>
       </c>
-      <c r="AR74" s="1">
+      <c r="AS74" s="1">
         <v>24801.5718249848</v>
       </c>
-      <c r="AS74" s="1">
+      <c r="AT74" s="1">
         <v>139562.38380363301</v>
       </c>
-      <c r="AT74" s="1">
+      <c r="AU74" s="1">
         <v>168256.18004114501</v>
       </c>
-      <c r="AU74" s="1">
+      <c r="AV74" s="1">
         <v>99034.049212895698</v>
       </c>
-      <c r="AV74" s="1">
+      <c r="AW74" s="1">
         <v>597912.640683871</v>
       </c>
-      <c r="AW74" s="1">
+      <c r="AX74" s="1">
         <v>722841.43904248602</v>
       </c>
     </row>
-    <row r="75" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D75" s="2">
         <v>51136</v>
       </c>
@@ -17010,113 +17783,113 @@
       <c r="J75" s="1">
         <v>1613320140.8764801</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <v>1655991884.48843</v>
       </c>
-      <c r="L75" s="1">
+      <c r="M75" s="1">
         <v>1655942820.23772</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N75" s="1">
         <v>1671387859.44256</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>1662155528.8872399</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>1684975635.4217</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="R75" s="1">
         <v>1656308031.5839801</v>
       </c>
-      <c r="R75" s="1">
+      <c r="S75" s="1">
         <v>1687180999.1921</v>
       </c>
-      <c r="S75" s="1">
+      <c r="T75" s="1">
         <v>1649758588.9556201</v>
       </c>
-      <c r="T75" s="1">
+      <c r="U75" s="1">
         <v>1672064169.3194699</v>
       </c>
-      <c r="U75" s="1">
+      <c r="V75" s="1">
         <v>1683554062.9468501</v>
       </c>
-      <c r="V75" s="1">
+      <c r="W75" s="1">
         <v>1633920450.3450201</v>
       </c>
-      <c r="W75" s="1">
+      <c r="X75" s="1">
         <v>1668886118.13518</v>
       </c>
-      <c r="X75" s="1">
+      <c r="Y75" s="1">
         <v>1684623052.08006</v>
       </c>
-      <c r="AC75" s="2">
+      <c r="AD75" s="2">
         <v>50771</v>
       </c>
-      <c r="AD75" s="1">
+      <c r="AE75" s="1">
         <v>50260.043152778497</v>
       </c>
-      <c r="AE75" s="1">
+      <c r="AF75" s="1">
         <v>337326.45566078101</v>
       </c>
-      <c r="AF75" s="1">
+      <c r="AG75" s="1">
         <v>628931.64305378799</v>
       </c>
-      <c r="AG75" s="1">
+      <c r="AH75" s="1">
         <v>200372.399959551</v>
       </c>
-      <c r="AH75" s="1">
+      <c r="AI75" s="1">
         <v>759054.11546363297</v>
       </c>
-      <c r="AI75" s="1">
+      <c r="AJ75" s="1">
         <v>631424.29404490301</v>
       </c>
-      <c r="AJ75" s="1">
+      <c r="AK75" s="1">
         <v>895040.43723952095</v>
       </c>
-      <c r="AK75" s="1">
+      <c r="AL75" s="1">
         <v>193103.33996951499</v>
       </c>
-      <c r="AL75" s="1">
+      <c r="AM75" s="1">
         <v>406749.86167582602</v>
       </c>
-      <c r="AM75" s="1">
+      <c r="AN75" s="1">
         <v>893519.29250657395</v>
       </c>
-      <c r="AN75" s="1">
+      <c r="AO75" s="1">
         <v>892523.40920966899</v>
       </c>
-      <c r="AO75" s="1">
-        <v>0</v>
-      </c>
       <c r="AP75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="1">
         <v>853082.83825098805</v>
       </c>
-      <c r="AQ75" s="1">
+      <c r="AR75" s="1">
         <v>454589.29011803301</v>
       </c>
-      <c r="AR75" s="1">
+      <c r="AS75" s="1">
         <v>25536.0664853977</v>
       </c>
-      <c r="AS75" s="1">
+      <c r="AT75" s="1">
         <v>143695.50191492101</v>
       </c>
-      <c r="AT75" s="1">
+      <c r="AU75" s="1">
         <v>173239.06042847599</v>
       </c>
-      <c r="AU75" s="1">
+      <c r="AV75" s="1">
         <v>101966.92705060801</v>
       </c>
-      <c r="AV75" s="1">
+      <c r="AW75" s="1">
         <v>615619.729777848</v>
       </c>
-      <c r="AW75" s="1">
+      <c r="AX75" s="1">
         <v>744248.27490951796</v>
       </c>
     </row>
-    <row r="76" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D76" s="2">
         <v>51502</v>
       </c>
@@ -17138,113 +17911,113 @@
       <c r="J76" s="1">
         <v>1780716559.9014399</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L76" s="1">
         <v>1827738648.3675101</v>
       </c>
-      <c r="L76" s="1">
+      <c r="M76" s="1">
         <v>1827559153.42219</v>
       </c>
-      <c r="M76" s="1">
+      <c r="N76" s="1">
         <v>1845375969.41206</v>
       </c>
-      <c r="N76" s="1">
+      <c r="O76" s="1">
         <v>1836014662.17329</v>
       </c>
-      <c r="O76" s="1">
+      <c r="P76" s="1">
         <v>1860907949.5242801</v>
       </c>
-      <c r="P76" s="1">
+      <c r="Q76" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="R76" s="1">
         <v>1829807354.1979001</v>
       </c>
-      <c r="R76" s="1">
+      <c r="S76" s="1">
         <v>1863671164.4608901</v>
       </c>
-      <c r="S76" s="1">
+      <c r="T76" s="1">
         <v>1821942494.8856101</v>
       </c>
-      <c r="T76" s="1">
+      <c r="U76" s="1">
         <v>1846578170.61836</v>
       </c>
-      <c r="U76" s="1">
+      <c r="V76" s="1">
         <v>1859214496.4725101</v>
       </c>
-      <c r="V76" s="1">
+      <c r="W76" s="1">
         <v>1804249695.9688301</v>
       </c>
-      <c r="W76" s="1">
+      <c r="X76" s="1">
         <v>1843038258.63446</v>
       </c>
-      <c r="X76" s="1">
+      <c r="Y76" s="1">
         <v>1859797067.7808199</v>
       </c>
-      <c r="AC76" s="2">
+      <c r="AD76" s="2">
         <v>51136</v>
       </c>
-      <c r="AD76" s="1">
+      <c r="AE76" s="1">
         <v>53550.514773523202</v>
       </c>
-      <c r="AE76" s="1">
+      <c r="AF76" s="1">
         <v>359410.86028224498</v>
       </c>
-      <c r="AF76" s="1">
+      <c r="AG76" s="1">
         <v>670107.12944495794</v>
       </c>
-      <c r="AG76" s="1">
+      <c r="AH76" s="1">
         <v>213490.568076583</v>
       </c>
-      <c r="AH76" s="1">
+      <c r="AI76" s="1">
         <v>745467.13934324495</v>
       </c>
-      <c r="AI76" s="1">
+      <c r="AJ76" s="1">
         <v>672762.971647862</v>
       </c>
-      <c r="AJ76" s="1">
+      <c r="AK76" s="1">
         <v>828441.84229433397</v>
       </c>
-      <c r="AK76" s="1">
+      <c r="AL76" s="1">
         <v>205745.61045283399</v>
       </c>
-      <c r="AL76" s="1">
+      <c r="AM76" s="1">
         <v>433379.34292234498</v>
       </c>
-      <c r="AM76" s="1">
+      <c r="AN76" s="1">
         <v>830277.69236132002</v>
       </c>
-      <c r="AN76" s="1">
+      <c r="AO76" s="1">
         <v>825746.542272961</v>
       </c>
-      <c r="AO76" s="1">
-        <v>0</v>
-      </c>
       <c r="AP76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="1">
         <v>754837.48978697998</v>
       </c>
-      <c r="AQ76" s="1">
+      <c r="AR76" s="1">
         <v>484350.767912251</v>
       </c>
-      <c r="AR76" s="1">
+      <c r="AS76" s="1">
         <v>27207.8856245145</v>
       </c>
-      <c r="AS76" s="1">
+      <c r="AT76" s="1">
         <v>153103.09373975199</v>
       </c>
-      <c r="AT76" s="1">
+      <c r="AU76" s="1">
         <v>184580.837637294</v>
       </c>
-      <c r="AU76" s="1">
+      <c r="AV76" s="1">
         <v>108642.593418316</v>
       </c>
-      <c r="AV76" s="1">
+      <c r="AW76" s="1">
         <v>655923.69935159001</v>
       </c>
-      <c r="AW76" s="1">
+      <c r="AX76" s="1">
         <v>792973.418657084</v>
       </c>
     </row>
-    <row r="77" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D77" s="2">
         <v>51867</v>
       </c>
@@ -17266,113 +18039,113 @@
       <c r="J77" s="1">
         <v>1946643954.2366199</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L77" s="1">
         <v>1999100858.4785399</v>
       </c>
-      <c r="L77" s="1">
+      <c r="M77" s="1">
         <v>1997816683.96734</v>
       </c>
-      <c r="M77" s="1">
+      <c r="N77" s="1">
         <v>2019612209.91818</v>
       </c>
-      <c r="N77" s="1">
+      <c r="O77" s="1">
         <v>2010295771.3487</v>
       </c>
-      <c r="O77" s="1">
+      <c r="P77" s="1">
         <v>2037708373.9725699</v>
       </c>
-      <c r="P77" s="1">
+      <c r="Q77" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="R77" s="1">
         <v>2003106194.7430899</v>
       </c>
-      <c r="R77" s="1">
+      <c r="S77" s="1">
         <v>2041347123.0998199</v>
       </c>
-      <c r="S77" s="1">
+      <c r="T77" s="1">
         <v>1994049690.1640401</v>
       </c>
-      <c r="T77" s="1">
+      <c r="U77" s="1">
         <v>2021657333.99177</v>
       </c>
-      <c r="U77" s="1">
+      <c r="V77" s="1">
         <v>2035650877.5478799</v>
       </c>
-      <c r="V77" s="1">
+      <c r="W77" s="1">
         <v>1974073957.0190799</v>
       </c>
-      <c r="W77" s="1">
+      <c r="X77" s="1">
         <v>2017665087.21679</v>
       </c>
-      <c r="X77" s="1">
+      <c r="Y77" s="1">
         <v>2035217639.2778699</v>
       </c>
-      <c r="AC77" s="2">
+      <c r="AD77" s="2">
         <v>51502</v>
       </c>
-      <c r="AD77" s="1">
+      <c r="AE77" s="1">
         <v>74881.643801515398</v>
       </c>
-      <c r="AE77" s="1">
+      <c r="AF77" s="1">
         <v>502577.35395959101</v>
       </c>
-      <c r="AF77" s="1">
+      <c r="AG77" s="1">
         <v>776426.06228356995</v>
       </c>
-      <c r="AG77" s="1">
+      <c r="AH77" s="1">
         <v>298531.67128839699</v>
       </c>
-      <c r="AH77" s="1">
-        <v>0</v>
-      </c>
       <c r="AI77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="1">
         <v>707750.51998009696</v>
       </c>
-      <c r="AJ77" s="1">
+      <c r="AK77" s="1">
         <v>755582.98027021205</v>
       </c>
-      <c r="AK77" s="1">
+      <c r="AL77" s="1">
         <v>287701.61371580098</v>
       </c>
-      <c r="AL77" s="1">
+      <c r="AM77" s="1">
         <v>606010.18916238297</v>
       </c>
-      <c r="AM77" s="1">
+      <c r="AN77" s="1">
         <v>758001.64428330294</v>
       </c>
-      <c r="AN77" s="1">
+      <c r="AO77" s="1">
         <v>747164.98108037596</v>
       </c>
-      <c r="AO77" s="1">
-        <v>0</v>
-      </c>
       <c r="AP77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="1">
         <v>610132.05879806203</v>
       </c>
-      <c r="AQ77" s="1">
+      <c r="AR77" s="1">
         <v>677285.39737078303</v>
       </c>
-      <c r="AR77" s="1">
+      <c r="AS77" s="1">
         <v>38045.781792084599</v>
       </c>
-      <c r="AS77" s="1">
+      <c r="AT77" s="1">
         <v>214089.65681873399</v>
       </c>
-      <c r="AT77" s="1">
+      <c r="AU77" s="1">
         <v>258106.13763464699</v>
       </c>
-      <c r="AU77" s="1">
+      <c r="AV77" s="1">
         <v>151918.91275797001</v>
       </c>
-      <c r="AV77" s="1">
+      <c r="AW77" s="1">
         <v>780610.62764930795</v>
       </c>
-      <c r="AW77" s="1">
+      <c r="AX77" s="1">
         <v>755182.76735316101</v>
       </c>
     </row>
-    <row r="78" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D78" s="2">
         <v>52232</v>
       </c>
@@ -17394,113 +18167,113 @@
       <c r="J78" s="1">
         <v>2110059861.23526</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>2173595889.2860699</v>
       </c>
-      <c r="L78" s="1">
+      <c r="M78" s="1">
         <v>2162300849.0982399</v>
       </c>
-      <c r="M78" s="1">
+      <c r="N78" s="1">
         <v>2198823382.8520799</v>
       </c>
-      <c r="N78" s="1">
+      <c r="O78" s="1">
         <v>2190106543.6865602</v>
       </c>
-      <c r="O78" s="1">
+      <c r="P78" s="1">
         <v>2221111706.4896498</v>
       </c>
-      <c r="P78" s="1">
+      <c r="Q78" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="R78" s="1">
         <v>2176946993.2827702</v>
       </c>
-      <c r="R78" s="1">
+      <c r="S78" s="1">
         <v>2226625762.8009801</v>
       </c>
-      <c r="S78" s="1">
+      <c r="T78" s="1">
         <v>2170132050.9984698</v>
       </c>
-      <c r="T78" s="1">
+      <c r="U78" s="1">
         <v>2203046841.3807201</v>
       </c>
-      <c r="U78" s="1">
+      <c r="V78" s="1">
         <v>2218939533.75035</v>
       </c>
-      <c r="V78" s="1">
+      <c r="W78" s="1">
         <v>2145982437.2393401</v>
       </c>
-      <c r="W78" s="1">
+      <c r="X78" s="1">
         <v>2198446070.2244902</v>
       </c>
-      <c r="X78" s="1">
+      <c r="Y78" s="1">
         <v>2210101081.2371302</v>
       </c>
-      <c r="AC78" s="2">
+      <c r="AD78" s="2">
         <v>51867</v>
       </c>
-      <c r="AD78" s="1">
+      <c r="AE78" s="1">
         <v>130938.06062432899</v>
       </c>
-      <c r="AE78" s="1">
+      <c r="AF78" s="1">
         <v>692292.65751686797</v>
       </c>
-      <c r="AF78" s="1">
+      <c r="AG78" s="1">
         <v>697966.22779921896</v>
       </c>
-      <c r="AG78" s="1">
+      <c r="AH78" s="1">
         <v>522012.55326410901</v>
       </c>
-      <c r="AH78" s="1">
-        <v>0</v>
-      </c>
       <c r="AI78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="1">
         <v>560755.06155949004</v>
       </c>
-      <c r="AJ78" s="1">
+      <c r="AK78" s="1">
         <v>674505.82962858595</v>
       </c>
-      <c r="AK78" s="1">
+      <c r="AL78" s="1">
         <v>503075.11194986198</v>
       </c>
-      <c r="AL78" s="1">
+      <c r="AM78" s="1">
         <v>683724.68613655097</v>
       </c>
-      <c r="AM78" s="1">
+      <c r="AN78" s="1">
         <v>685059.99394270801</v>
       </c>
-      <c r="AN78" s="1">
+      <c r="AO78" s="1">
         <v>666638.73597661895</v>
       </c>
-      <c r="AO78" s="1">
-        <v>0</v>
-      </c>
       <c r="AP78" s="1">
         <v>0</v>
       </c>
       <c r="AQ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="1">
         <v>711993.15845969005</v>
       </c>
-      <c r="AR78" s="1">
+      <c r="AS78" s="1">
         <v>66526.863325764396</v>
       </c>
-      <c r="AS78" s="1">
+      <c r="AT78" s="1">
         <v>374357.22615648498</v>
       </c>
-      <c r="AT78" s="1">
+      <c r="AU78" s="1">
         <v>451324.45525231602</v>
       </c>
-      <c r="AU78" s="1">
+      <c r="AV78" s="1">
         <v>265645.447920612</v>
       </c>
-      <c r="AV78" s="1">
+      <c r="AW78" s="1">
         <v>700521.03479496005</v>
       </c>
-      <c r="AW78" s="1">
+      <c r="AX78" s="1">
         <v>612662.89569182403</v>
       </c>
     </row>
-    <row r="79" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D79" s="2">
         <v>52597</v>
       </c>
@@ -17522,113 +18295,113 @@
       <c r="J79" s="1">
         <v>2280778818.77634</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>2355543069.9349399</v>
       </c>
-      <c r="L79" s="1">
+      <c r="M79" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M79" s="1">
+      <c r="N79" s="1">
         <v>2386657965.60674</v>
       </c>
-      <c r="N79" s="1">
+      <c r="O79" s="1">
         <v>2380208198.8964801</v>
       </c>
-      <c r="O79" s="1">
+      <c r="P79" s="1">
         <v>2416401486.8976498</v>
       </c>
-      <c r="P79" s="1">
+      <c r="Q79" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="R79" s="1">
         <v>2339117278.5711298</v>
       </c>
-      <c r="R79" s="1">
+      <c r="S79" s="1">
         <v>2429066226.02349</v>
       </c>
-      <c r="S79" s="1">
+      <c r="T79" s="1">
         <v>2353967100.6349502</v>
       </c>
-      <c r="T79" s="1">
+      <c r="U79" s="1">
         <v>2398410898.2853098</v>
       </c>
-      <c r="U79" s="1">
+      <c r="V79" s="1">
         <v>2418046784.8249998</v>
       </c>
-      <c r="V79" s="1">
+      <c r="W79" s="1">
         <v>2324754079.0188198</v>
       </c>
-      <c r="W79" s="1">
+      <c r="X79" s="1">
         <v>2393512280.3913498</v>
       </c>
-      <c r="X79" s="1">
+      <c r="Y79" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC79" s="2">
+      <c r="AD79" s="2">
         <v>52232</v>
       </c>
-      <c r="AD79" s="1">
+      <c r="AE79" s="1">
         <v>490062.53544041503</v>
       </c>
-      <c r="AE79" s="1">
+      <c r="AF79" s="1">
         <v>562233.988863045</v>
       </c>
-      <c r="AF79" s="1">
+      <c r="AG79" s="1">
         <v>577059.25810867804</v>
       </c>
-      <c r="AG79" s="1">
+      <c r="AH79" s="1">
         <v>603738.991109394</v>
       </c>
-      <c r="AH79" s="1">
-        <v>0</v>
-      </c>
       <c r="AI79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="1">
         <v>433511.55390992097</v>
       </c>
-      <c r="AJ79" s="1">
+      <c r="AK79" s="1">
         <v>529723.02571436798</v>
       </c>
-      <c r="AK79" s="1">
+      <c r="AL79" s="1">
         <v>518048.07790309098</v>
       </c>
-      <c r="AL79" s="1">
+      <c r="AM79" s="1">
         <v>563095.986729739</v>
       </c>
-      <c r="AM79" s="1">
+      <c r="AN79" s="1">
         <v>571788.28608307894</v>
       </c>
-      <c r="AN79" s="1">
+      <c r="AO79" s="1">
         <v>515011.21394359798</v>
       </c>
-      <c r="AO79" s="1">
-        <v>0</v>
-      </c>
       <c r="AP79" s="1">
         <v>0</v>
       </c>
       <c r="AQ79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="1">
         <v>626677.06146744394</v>
       </c>
-      <c r="AR79" s="1">
+      <c r="AS79" s="1">
         <v>248990.42463948199</v>
       </c>
-      <c r="AS79" s="1">
+      <c r="AT79" s="1">
         <v>591461.68028275995</v>
       </c>
-      <c r="AT79" s="1">
+      <c r="AU79" s="1">
         <v>601054.69109575299</v>
       </c>
-      <c r="AU79" s="1">
+      <c r="AV79" s="1">
         <v>539311.45548450202</v>
       </c>
-      <c r="AV79" s="1">
+      <c r="AW79" s="1">
         <v>578514.45843943104</v>
       </c>
-      <c r="AW79" s="1">
+      <c r="AX79" s="1">
         <v>449717.31078529899</v>
       </c>
     </row>
-    <row r="80" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D80" s="2">
         <v>52963</v>
       </c>
@@ -17650,113 +18423,113 @@
       <c r="J80" s="1">
         <v>2451089626.9109101</v>
       </c>
-      <c r="K80" s="1">
+      <c r="L80" s="1">
         <v>2556174929.9357901</v>
       </c>
-      <c r="L80" s="1">
+      <c r="M80" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M80" s="1">
+      <c r="N80" s="1">
         <v>2593953732.6417599</v>
       </c>
-      <c r="N80" s="1">
+      <c r="O80" s="1">
         <v>2590035321.1083498</v>
       </c>
-      <c r="O80" s="1">
+      <c r="P80" s="1">
         <v>2615362565.2155399</v>
       </c>
-      <c r="P80" s="1">
+      <c r="Q80" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="R80" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R80" s="1">
+      <c r="S80" s="1">
         <v>2652453545.5122199</v>
       </c>
-      <c r="S80" s="1">
+      <c r="T80" s="1">
         <v>2558013218.7052398</v>
       </c>
-      <c r="T80" s="1">
+      <c r="U80" s="1">
         <v>2616655085.2677598</v>
       </c>
-      <c r="U80" s="1">
+      <c r="V80" s="1">
         <v>2640693318.0735502</v>
       </c>
-      <c r="V80" s="1">
+      <c r="W80" s="1">
         <v>2522013485.0205202</v>
       </c>
-      <c r="W80" s="1">
+      <c r="X80" s="1">
         <v>2611972798.8305402</v>
       </c>
-      <c r="X80" s="1">
+      <c r="Y80" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>52597</v>
       </c>
-      <c r="AD80" s="1">
+      <c r="AE80" s="1">
         <v>618802.84303219896</v>
       </c>
-      <c r="AE80" s="1">
+      <c r="AF80" s="1">
         <v>618698.85812577896</v>
       </c>
-      <c r="AF80" s="1">
+      <c r="AG80" s="1">
         <v>626186.74212299904</v>
       </c>
-      <c r="AG80" s="1">
+      <c r="AH80" s="1">
         <v>637098.50447014603</v>
       </c>
-      <c r="AH80" s="1">
-        <v>0</v>
-      </c>
       <c r="AI80" s="1">
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="1">
         <v>569028.33689033997</v>
       </c>
-      <c r="AK80" s="1">
+      <c r="AL80" s="1">
         <v>487617.02553209697</v>
       </c>
-      <c r="AL80" s="1">
+      <c r="AM80" s="1">
         <v>607496.45578232897</v>
       </c>
-      <c r="AM80" s="1">
+      <c r="AN80" s="1">
         <v>619224.175837585</v>
       </c>
-      <c r="AN80" s="1">
+      <c r="AO80" s="1">
         <v>483845.38503001601</v>
       </c>
-      <c r="AO80" s="1">
-        <v>0</v>
-      </c>
       <c r="AP80" s="1">
         <v>0</v>
       </c>
       <c r="AQ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="1">
         <v>660068.88116910995</v>
       </c>
-      <c r="AR80" s="1">
+      <c r="AS80" s="1">
         <v>550630.36164656503</v>
       </c>
-      <c r="AS80" s="1">
+      <c r="AT80" s="1">
         <v>644327.112332594</v>
       </c>
-      <c r="AT80" s="1">
+      <c r="AU80" s="1">
         <v>653888.32099707995</v>
       </c>
-      <c r="AU80" s="1">
+      <c r="AV80" s="1">
         <v>584857.41390589601</v>
       </c>
-      <c r="AV80" s="1">
+      <c r="AW80" s="1">
         <v>638229.58312526694</v>
       </c>
-      <c r="AW80" s="1">
+      <c r="AX80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D81" s="2">
         <v>53328</v>
       </c>
@@ -17778,84 +18551,81 @@
       <c r="J81" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K81" s="1">
+      <c r="L81" s="1">
         <v>2746868659.4105802</v>
       </c>
-      <c r="L81" s="1">
+      <c r="M81" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M81" s="1">
+      <c r="N81" s="1">
         <v>2794128166.73455</v>
       </c>
-      <c r="N81" s="1">
+      <c r="O81" s="1">
         <v>2797162467.9802799</v>
       </c>
-      <c r="O81" s="1">
+      <c r="P81" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P81" s="1">
+      <c r="Q81" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="R81" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R81" s="1">
+      <c r="S81" s="1">
         <v>2873999282.6275802</v>
       </c>
-      <c r="S81" s="1">
+      <c r="T81" s="1">
         <v>2757747209.2140698</v>
       </c>
-      <c r="T81" s="1">
+      <c r="U81" s="1">
         <v>2828971951.3937702</v>
       </c>
-      <c r="U81" s="1">
+      <c r="V81" s="1">
         <v>2855500871.7548399</v>
       </c>
-      <c r="V81" s="1">
+      <c r="W81" s="1">
         <v>2715140873.9780598</v>
       </c>
-      <c r="W81" s="1">
+      <c r="X81" s="1">
         <v>2824782415.8055801</v>
       </c>
-      <c r="X81" s="1">
+      <c r="Y81" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC81" s="2">
+      <c r="AD81" s="2">
         <v>52963</v>
       </c>
-      <c r="AD81" s="1">
+      <c r="AE81" s="1">
         <v>597361.46619996103</v>
       </c>
-      <c r="AE81" s="1">
+      <c r="AF81" s="1">
         <v>606550.90342851297</v>
       </c>
-      <c r="AF81" s="1">
+      <c r="AG81" s="1">
         <v>590208.79779063305</v>
       </c>
-      <c r="AG81" s="1">
+      <c r="AH81" s="1">
         <v>549752.02691415104</v>
       </c>
-      <c r="AH81" s="1">
-        <v>0</v>
-      </c>
       <c r="AI81" s="1">
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="1">
         <v>514157.90755051898</v>
       </c>
-      <c r="AK81" s="1">
-        <v>0</v>
-      </c>
       <c r="AL81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="1">
         <v>600691.61149328097</v>
       </c>
-      <c r="AM81" s="1">
+      <c r="AN81" s="1">
         <v>615571.45998751104</v>
       </c>
-      <c r="AN81" s="1">
-        <v>0</v>
-      </c>
       <c r="AO81" s="1">
         <v>0</v>
       </c>
@@ -17863,28 +18633,31 @@
         <v>0</v>
       </c>
       <c r="AQ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="1">
         <v>654228.43752977101</v>
       </c>
-      <c r="AR81" s="1">
+      <c r="AS81" s="1">
         <v>600617.63005223102</v>
       </c>
-      <c r="AS81" s="1">
+      <c r="AT81" s="1">
         <v>623356.30058721104</v>
       </c>
-      <c r="AT81" s="1">
+      <c r="AU81" s="1">
         <v>632776.20435394498</v>
       </c>
-      <c r="AU81" s="1">
+      <c r="AV81" s="1">
         <v>571957.29072593199</v>
       </c>
-      <c r="AV81" s="1">
+      <c r="AW81" s="1">
         <v>619474.33595698001</v>
       </c>
-      <c r="AW81" s="1">
+      <c r="AX81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D82" s="2">
         <v>53693</v>
       </c>
@@ -17906,63 +18679,60 @@
       <c r="J82" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L82" s="1">
+      <c r="M82" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M82" s="1">
+      <c r="N82" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N82" s="1">
+      <c r="O82" s="1">
         <v>3007533260.8905702</v>
       </c>
-      <c r="O82" s="1">
+      <c r="P82" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P82" s="1">
+      <c r="Q82" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="R82" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R82" s="1">
+      <c r="S82" s="1">
         <v>3096991512.3886499</v>
       </c>
-      <c r="S82" s="1">
+      <c r="T82" s="1">
         <v>2956218177.4628</v>
       </c>
-      <c r="T82" s="1">
+      <c r="U82" s="1">
         <v>3041882078.1085401</v>
       </c>
-      <c r="U82" s="1">
+      <c r="V82" s="1">
         <v>3066098526.0816998</v>
       </c>
-      <c r="V82" s="1">
+      <c r="W82" s="1">
         <v>2911484999.41153</v>
       </c>
-      <c r="W82" s="1">
+      <c r="X82" s="1">
         <v>3039945966.7002401</v>
       </c>
-      <c r="X82" s="1">
+      <c r="Y82" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC82" s="2">
+      <c r="AD82" s="2">
         <v>53328</v>
       </c>
-      <c r="AD82" s="1">
+      <c r="AE82" s="1">
         <v>577071.89448819798</v>
       </c>
-      <c r="AE82" s="1">
+      <c r="AF82" s="1">
         <v>593209.86085426598</v>
       </c>
-      <c r="AF82" s="1">
+      <c r="AG82" s="1">
         <v>538593.03413023695</v>
       </c>
-      <c r="AG82" s="1">
-        <v>0</v>
-      </c>
       <c r="AH82" s="1">
         <v>0</v>
       </c>
@@ -17970,20 +18740,20 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1">
         <v>435174.86582382797</v>
       </c>
-      <c r="AK82" s="1">
-        <v>0</v>
-      </c>
       <c r="AL82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="1">
         <v>533214.56200151599</v>
       </c>
-      <c r="AM82" s="1">
+      <c r="AN82" s="1">
         <v>596866.977023151</v>
       </c>
-      <c r="AN82" s="1">
-        <v>0</v>
-      </c>
       <c r="AO82" s="1">
         <v>0</v>
       </c>
@@ -17991,28 +18761,31 @@
         <v>0</v>
       </c>
       <c r="AQ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="1">
         <v>640140.64817264106</v>
       </c>
-      <c r="AR82" s="1">
+      <c r="AS82" s="1">
         <v>583503.23611356097</v>
       </c>
-      <c r="AS82" s="1">
+      <c r="AT82" s="1">
         <v>602080.51294470695</v>
       </c>
-      <c r="AT82" s="1">
+      <c r="AU82" s="1">
         <v>605402.74452963995</v>
       </c>
-      <c r="AU82" s="1">
+      <c r="AV82" s="1">
         <v>556695.73607423296</v>
       </c>
-      <c r="AV82" s="1">
+      <c r="AW82" s="1">
         <v>601308.21324329195</v>
       </c>
-      <c r="AW82" s="1">
+      <c r="AX82" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D83" s="2">
         <v>54058</v>
       </c>
@@ -18034,63 +18807,60 @@
       <c r="J83" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L83" s="1">
+      <c r="M83" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M83" s="1">
+      <c r="N83" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N83" s="1">
+      <c r="O83" s="1">
         <v>3233984127.8422298</v>
       </c>
-      <c r="O83" s="1">
+      <c r="P83" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P83" s="1">
+      <c r="Q83" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="R83" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R83" s="1">
+      <c r="S83" s="1">
         <v>3334101965.4331198</v>
       </c>
-      <c r="S83" s="1">
+      <c r="T83" s="1">
         <v>3160822645.5759201</v>
       </c>
-      <c r="T83" s="1">
+      <c r="U83" s="1">
         <v>3269518367.3636098</v>
       </c>
-      <c r="U83" s="1">
+      <c r="V83" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V83" s="1">
+      <c r="W83" s="1">
         <v>3125737225.2026701</v>
       </c>
-      <c r="W83" s="1">
+      <c r="X83" s="1">
         <v>3270467346.9798498</v>
       </c>
-      <c r="X83" s="1">
+      <c r="Y83" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC83" s="2">
+      <c r="AD83" s="2">
         <v>53693</v>
       </c>
-      <c r="AD83" s="1">
+      <c r="AE83" s="1">
         <v>579508.73762622895</v>
       </c>
-      <c r="AE83" s="1">
+      <c r="AF83" s="1">
         <v>601634.84567179705</v>
       </c>
-      <c r="AF83" s="1">
+      <c r="AG83" s="1">
         <v>481549.80780910002</v>
       </c>
-      <c r="AG83" s="1">
-        <v>0</v>
-      </c>
       <c r="AH83" s="1">
         <v>0</v>
       </c>
@@ -18107,11 +18877,11 @@
         <v>0</v>
       </c>
       <c r="AM83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="1">
         <v>587158.60563133098</v>
       </c>
-      <c r="AN83" s="1">
-        <v>0</v>
-      </c>
       <c r="AO83" s="1">
         <v>0</v>
       </c>
@@ -18119,28 +18889,31 @@
         <v>0</v>
       </c>
       <c r="AQ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="1">
         <v>643106.97475482104</v>
       </c>
-      <c r="AR83" s="1">
+      <c r="AS83" s="1">
         <v>598371.93833774596</v>
       </c>
-      <c r="AS83" s="1">
+      <c r="AT83" s="1">
         <v>611295.94473051396</v>
       </c>
-      <c r="AT83" s="1">
+      <c r="AU83" s="1">
         <v>591802.08297500701</v>
       </c>
-      <c r="AU83" s="1">
+      <c r="AV83" s="1">
         <v>579049.02697900101</v>
       </c>
-      <c r="AV83" s="1">
+      <c r="AW83" s="1">
         <v>613552.39785924798</v>
       </c>
-      <c r="AW83" s="1">
+      <c r="AX83" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D84" s="2">
         <v>54424</v>
       </c>
@@ -18162,60 +18935,57 @@
       <c r="J84" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L84" s="1">
+      <c r="M84" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M84" s="1">
+      <c r="N84" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N84" s="1">
+      <c r="O84" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O84" s="1">
+      <c r="P84" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P84" s="1">
+      <c r="Q84" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="R84" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R84" s="1">
+      <c r="S84" s="1">
         <v>3584997004.6097798</v>
       </c>
-      <c r="S84" s="1">
+      <c r="T84" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T84" s="1">
+      <c r="U84" s="1">
         <v>3517822492.323</v>
       </c>
-      <c r="U84" s="1">
+      <c r="V84" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V84" s="1">
+      <c r="W84" s="1">
         <v>3363473283.7666502</v>
       </c>
-      <c r="W84" s="1">
+      <c r="X84" s="1">
         <v>3519185662.26017</v>
       </c>
-      <c r="X84" s="1">
+      <c r="Y84" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC84" s="2">
+      <c r="AD84" s="2">
         <v>54058</v>
       </c>
-      <c r="AD84" s="1">
+      <c r="AE84" s="1">
         <v>559411.27298799995</v>
       </c>
-      <c r="AE84" s="1">
+      <c r="AF84" s="1">
         <v>583151.83128556004</v>
       </c>
-      <c r="AF84" s="1">
-        <v>0</v>
-      </c>
       <c r="AG84" s="1">
         <v>0</v>
       </c>
@@ -18235,11 +19005,11 @@
         <v>0</v>
       </c>
       <c r="AM84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="1">
         <v>539703.55997601105</v>
       </c>
-      <c r="AN84" s="1">
-        <v>0</v>
-      </c>
       <c r="AO84" s="1">
         <v>0</v>
       </c>
@@ -18247,28 +19017,31 @@
         <v>0</v>
       </c>
       <c r="AQ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="1">
         <v>641658.31203477702</v>
       </c>
-      <c r="AR84" s="1">
+      <c r="AS84" s="1">
         <v>597149.95142229099</v>
       </c>
-      <c r="AS84" s="1">
+      <c r="AT84" s="1">
         <v>612164.43869291095</v>
       </c>
-      <c r="AT84" s="1">
+      <c r="AU84" s="1">
         <v>538539.41674573196</v>
       </c>
-      <c r="AU84" s="1">
+      <c r="AV84" s="1">
         <v>579992.14839195099</v>
       </c>
-      <c r="AV84" s="1">
+      <c r="AW84" s="1">
         <v>621181.46773892397</v>
       </c>
-      <c r="AW84" s="1">
+      <c r="AX84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D85" s="2">
         <v>54789</v>
       </c>
@@ -18290,60 +19063,57 @@
       <c r="J85" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K85" s="1">
+      <c r="L85" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L85" s="1">
+      <c r="M85" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M85" s="1">
+      <c r="N85" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N85" s="1">
+      <c r="O85" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O85" s="1">
+      <c r="P85" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P85" s="1">
+      <c r="Q85" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="R85" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R85" s="1">
+      <c r="S85" s="1">
         <v>3842892619.7704701</v>
       </c>
-      <c r="S85" s="1">
+      <c r="T85" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T85" s="1">
+      <c r="U85" s="1">
         <v>3772283540.7594299</v>
       </c>
-      <c r="U85" s="1">
+      <c r="V85" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V85" s="1">
+      <c r="W85" s="1">
         <v>3608442255.38305</v>
       </c>
-      <c r="W85" s="1">
+      <c r="X85" s="1">
         <v>3772747145.14852</v>
       </c>
-      <c r="X85" s="1">
+      <c r="Y85" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC85" s="2">
+      <c r="AD85" s="2">
         <v>54424</v>
       </c>
-      <c r="AD85" s="1">
+      <c r="AE85" s="1">
         <v>544451.22642663901</v>
       </c>
-      <c r="AE85" s="1">
+      <c r="AF85" s="1">
         <v>574172.48157759896</v>
       </c>
-      <c r="AF85" s="1">
-        <v>0</v>
-      </c>
       <c r="AG85" s="1">
         <v>0</v>
       </c>
@@ -18375,28 +19145,31 @@
         <v>0</v>
       </c>
       <c r="AQ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="1">
         <v>661381.48541905195</v>
       </c>
-      <c r="AR85" s="1">
+      <c r="AS85" s="1">
         <v>602557.76888490701</v>
       </c>
-      <c r="AS85" s="1">
+      <c r="AT85" s="1">
         <v>657223.84420046001</v>
       </c>
-      <c r="AT85" s="1">
-        <v>0</v>
-      </c>
       <c r="AU85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="1">
         <v>617669.23039371299</v>
       </c>
-      <c r="AV85" s="1">
+      <c r="AW85" s="1">
         <v>659489.95246914797</v>
       </c>
-      <c r="AW85" s="1">
+      <c r="AX85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D86" s="2">
         <v>55154</v>
       </c>
@@ -18418,54 +19191,51 @@
       <c r="J86" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M86" s="1">
+      <c r="N86" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O86" s="1">
+      <c r="P86" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P86" s="1">
+      <c r="Q86" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="R86" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R86" s="1">
+      <c r="S86" s="1">
         <v>4097584419.9979901</v>
       </c>
-      <c r="S86" s="1">
+      <c r="T86" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T86" s="1">
+      <c r="U86" s="1">
         <v>4028117821.97823</v>
       </c>
-      <c r="U86" s="1">
+      <c r="V86" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V86" s="1">
+      <c r="W86" s="1">
         <v>3852796995.6578498</v>
       </c>
-      <c r="W86" s="1">
+      <c r="X86" s="1">
         <v>4027343763.3624401</v>
       </c>
-      <c r="X86" s="1">
+      <c r="Y86" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC86" s="2">
+      <c r="AD86" s="2">
         <v>54789</v>
       </c>
-      <c r="AD86" s="1">
-        <v>0</v>
-      </c>
       <c r="AE86" s="1">
         <v>0</v>
       </c>
@@ -18503,28 +19273,31 @@
         <v>0</v>
       </c>
       <c r="AQ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="1">
         <v>678405.88705865096</v>
       </c>
-      <c r="AR86" s="1">
+      <c r="AS86" s="1">
         <v>539888.52580114699</v>
       </c>
-      <c r="AS86" s="1">
+      <c r="AT86" s="1">
         <v>688094.833197781</v>
       </c>
-      <c r="AT86" s="1">
-        <v>0</v>
-      </c>
       <c r="AU86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV86" s="1">
         <v>663853.69036865595</v>
       </c>
-      <c r="AV86" s="1">
+      <c r="AW86" s="1">
         <v>689089.12562728301</v>
       </c>
-      <c r="AW86" s="1">
+      <c r="AX86" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D87" s="2">
         <v>55519</v>
       </c>
@@ -18546,54 +19319,51 @@
       <c r="J87" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L87" s="1">
+      <c r="M87" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M87" s="1">
+      <c r="N87" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N87" s="1">
+      <c r="O87" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O87" s="1">
+      <c r="P87" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P87" s="1">
+      <c r="Q87" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="R87" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R87" s="1">
+      <c r="S87" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S87" s="1">
+      <c r="T87" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T87" s="1">
+      <c r="U87" s="1">
         <v>4289616818.0089502</v>
       </c>
-      <c r="U87" s="1">
+      <c r="V87" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V87" s="1">
+      <c r="W87" s="1">
         <v>4094808028.1349602</v>
       </c>
-      <c r="W87" s="1">
+      <c r="X87" s="1">
         <v>4286446775.0913601</v>
       </c>
-      <c r="X87" s="1">
+      <c r="Y87" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC87" s="2">
+      <c r="AD87" s="2">
         <v>55154</v>
       </c>
-      <c r="AD87" s="1">
-        <v>0</v>
-      </c>
       <c r="AE87" s="1">
         <v>0</v>
       </c>
@@ -18631,28 +19401,31 @@
         <v>0</v>
       </c>
       <c r="AQ87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="1">
         <v>625430.42305605498</v>
       </c>
-      <c r="AR87" s="1">
-        <v>0</v>
-      </c>
       <c r="AS87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="1">
         <v>702154.05363156996</v>
       </c>
-      <c r="AT87" s="1">
-        <v>0</v>
-      </c>
       <c r="AU87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV87" s="1">
         <v>677141.38896578795</v>
       </c>
-      <c r="AV87" s="1">
+      <c r="AW87" s="1">
         <v>699794.64740536397</v>
       </c>
-      <c r="AW87" s="1">
+      <c r="AX87" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D88" s="2">
         <v>55885</v>
       </c>
@@ -18674,54 +19447,51 @@
       <c r="J88" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L88" s="1">
+      <c r="M88" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M88" s="1">
+      <c r="N88" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N88" s="1">
+      <c r="O88" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O88" s="1">
+      <c r="P88" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P88" s="1">
+      <c r="Q88" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="R88" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R88" s="1">
+      <c r="S88" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S88" s="1">
+      <c r="T88" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T88" s="1">
+      <c r="U88" s="1">
         <v>4553850269.89645</v>
       </c>
-      <c r="U88" s="1">
+      <c r="V88" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V88" s="1">
+      <c r="W88" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W88" s="1">
+      <c r="X88" s="1">
         <v>4546541033.6183596</v>
       </c>
-      <c r="X88" s="1">
+      <c r="Y88" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC88" s="2">
+      <c r="AD88" s="2">
         <v>55519</v>
       </c>
-      <c r="AD88" s="1">
-        <v>0</v>
-      </c>
       <c r="AE88" s="1">
         <v>0</v>
       </c>
@@ -18765,22 +19535,25 @@
         <v>0</v>
       </c>
       <c r="AS88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT88" s="1">
         <v>732951.32654930896</v>
       </c>
-      <c r="AT88" s="1">
-        <v>0</v>
-      </c>
       <c r="AU88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV88" s="1">
         <v>691558.57379635202</v>
       </c>
-      <c r="AV88" s="1">
+      <c r="AW88" s="1">
         <v>717730.07602568006</v>
       </c>
-      <c r="AW88" s="1">
+      <c r="AX88" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D89" s="2">
         <v>56250</v>
       </c>
@@ -18802,54 +19575,51 @@
       <c r="J89" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L89" s="1">
+      <c r="M89" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M89" s="1">
+      <c r="N89" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O89" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O89" s="1">
+      <c r="P89" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P89" s="1">
+      <c r="Q89" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="R89" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R89" s="1">
+      <c r="S89" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S89" s="1">
+      <c r="T89" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T89" s="1">
+      <c r="U89" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U89" s="1">
+      <c r="V89" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V89" s="1">
+      <c r="W89" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W89" s="1">
+      <c r="X89" s="1">
         <v>4795900896.7813396</v>
       </c>
-      <c r="X89" s="1">
+      <c r="Y89" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC89" s="2">
+      <c r="AD89" s="2">
         <v>55885</v>
       </c>
-      <c r="AD89" s="1">
-        <v>0</v>
-      </c>
       <c r="AE89" s="1">
         <v>0</v>
       </c>
@@ -18893,22 +19663,25 @@
         <v>0</v>
       </c>
       <c r="AS89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="1">
         <v>726936.92707276298</v>
       </c>
-      <c r="AT89" s="1">
-        <v>0</v>
-      </c>
       <c r="AU89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="1">
         <v>626295.60635910102</v>
       </c>
-      <c r="AV89" s="1">
+      <c r="AW89" s="1">
         <v>693755.167298947</v>
       </c>
-      <c r="AW89" s="1">
+      <c r="AX89" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D90" s="2">
         <v>56615</v>
       </c>
@@ -18930,54 +19703,51 @@
       <c r="J90" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L90" s="1">
+      <c r="M90" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M90" s="1">
+      <c r="N90" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N90" s="1">
+      <c r="O90" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O90" s="1">
+      <c r="P90" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P90" s="1">
+      <c r="Q90" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="R90" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R90" s="1">
+      <c r="S90" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S90" s="1">
+      <c r="T90" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T90" s="1">
+      <c r="U90" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U90" s="1">
+      <c r="V90" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V90" s="1">
+      <c r="W90" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W90" s="1">
+      <c r="X90" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X90" s="1">
+      <c r="Y90" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC90" s="2">
+      <c r="AD90" s="2">
         <v>56250</v>
       </c>
-      <c r="AD90" s="1">
-        <v>0</v>
-      </c>
       <c r="AE90" s="1">
         <v>0</v>
       </c>
@@ -19021,11 +19791,11 @@
         <v>0</v>
       </c>
       <c r="AS90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT90" s="1">
         <v>703914.45294993406</v>
       </c>
-      <c r="AT90" s="1">
-        <v>0</v>
-      </c>
       <c r="AU90" s="1">
         <v>0</v>
       </c>
@@ -19035,8 +19805,11 @@
       <c r="AW90" s="1">
         <v>0</v>
       </c>
+      <c r="AX90" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D91" s="2">
         <v>56980</v>
       </c>
@@ -19058,54 +19831,51 @@
       <c r="J91" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L91" s="1">
+      <c r="M91" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M91" s="1">
+      <c r="N91" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N91" s="1">
+      <c r="O91" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O91" s="1">
+      <c r="P91" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P91" s="1">
+      <c r="Q91" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="R91" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R91" s="1">
+      <c r="S91" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S91" s="1">
+      <c r="T91" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T91" s="1">
+      <c r="U91" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U91" s="1">
+      <c r="V91" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V91" s="1">
+      <c r="W91" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W91" s="1">
+      <c r="X91" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X91" s="1">
+      <c r="Y91" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC91" s="2">
+      <c r="AD91" s="2">
         <v>56615</v>
       </c>
-      <c r="AD91" s="1">
-        <v>0</v>
-      </c>
       <c r="AE91" s="1">
         <v>0</v>
       </c>
@@ -19149,11 +19919,11 @@
         <v>0</v>
       </c>
       <c r="AS91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="1">
         <v>666508.32509797299</v>
       </c>
-      <c r="AT91" s="1">
-        <v>0</v>
-      </c>
       <c r="AU91" s="1">
         <v>0</v>
       </c>
@@ -19163,8 +19933,11 @@
       <c r="AW91" s="1">
         <v>0</v>
       </c>
+      <c r="AX91" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D92" s="2">
         <v>57346</v>
       </c>
@@ -19186,54 +19959,51 @@
       <c r="J92" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K92" s="1">
+      <c r="L92" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L92" s="1">
+      <c r="M92" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M92" s="1">
+      <c r="N92" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O92" s="1">
+      <c r="P92" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P92" s="1">
+      <c r="Q92" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="R92" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R92" s="1">
+      <c r="S92" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S92" s="1">
+      <c r="T92" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T92" s="1">
+      <c r="U92" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U92" s="1">
+      <c r="V92" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V92" s="1">
+      <c r="W92" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W92" s="1">
+      <c r="X92" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X92" s="1">
+      <c r="Y92" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC92" s="2">
+      <c r="AD92" s="2">
         <v>56980</v>
       </c>
-      <c r="AD92" s="1">
-        <v>0</v>
-      </c>
       <c r="AE92" s="1">
         <v>0</v>
       </c>
@@ -19291,8 +20061,11 @@
       <c r="AW92" s="1">
         <v>0</v>
       </c>
+      <c r="AX92" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D93" s="2">
         <v>57711</v>
       </c>
@@ -19314,54 +20087,51 @@
       <c r="J93" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K93" s="1">
+      <c r="L93" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L93" s="1">
+      <c r="M93" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M93" s="1">
+      <c r="N93" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N93" s="1">
+      <c r="O93" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O93" s="1">
+      <c r="P93" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P93" s="1">
+      <c r="Q93" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="R93" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R93" s="1">
+      <c r="S93" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S93" s="1">
+      <c r="T93" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T93" s="1">
+      <c r="U93" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U93" s="1">
+      <c r="V93" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V93" s="1">
+      <c r="W93" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W93" s="1">
+      <c r="X93" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X93" s="1">
+      <c r="Y93" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC93" s="2">
+      <c r="AD93" s="2">
         <v>57346</v>
       </c>
-      <c r="AD93" s="1">
-        <v>0</v>
-      </c>
       <c r="AE93" s="1">
         <v>0</v>
       </c>
@@ -19419,8 +20189,11 @@
       <c r="AW93" s="1">
         <v>0</v>
       </c>
+      <c r="AX93" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D94" s="2">
         <v>58076</v>
       </c>
@@ -19442,54 +20215,51 @@
       <c r="J94" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M94" s="1">
+      <c r="N94" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O94" s="1">
+      <c r="P94" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P94" s="1">
+      <c r="Q94" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="R94" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R94" s="1">
+      <c r="S94" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S94" s="1">
+      <c r="T94" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T94" s="1">
+      <c r="U94" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U94" s="1">
+      <c r="V94" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V94" s="1">
+      <c r="W94" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W94" s="1">
+      <c r="X94" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X94" s="1">
+      <c r="Y94" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC94" s="2">
+      <c r="AD94" s="2">
         <v>57711</v>
       </c>
-      <c r="AD94" s="1">
-        <v>0</v>
-      </c>
       <c r="AE94" s="1">
         <v>0</v>
       </c>
@@ -19547,8 +20317,11 @@
       <c r="AW94" s="1">
         <v>0</v>
       </c>
+      <c r="AX94" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D95" s="2">
         <v>58441</v>
       </c>
@@ -19570,54 +20343,51 @@
       <c r="J95" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M95" s="1">
+      <c r="N95" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O95" s="1">
+      <c r="P95" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P95" s="1">
+      <c r="Q95" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="R95" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R95" s="1">
+      <c r="S95" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S95" s="1">
+      <c r="T95" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T95" s="1">
+      <c r="U95" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U95" s="1">
+      <c r="V95" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V95" s="1">
+      <c r="W95" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W95" s="1">
+      <c r="X95" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X95" s="1">
+      <c r="Y95" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC95" s="2">
+      <c r="AD95" s="2">
         <v>58076</v>
       </c>
-      <c r="AD95" s="1">
-        <v>0</v>
-      </c>
       <c r="AE95" s="1">
         <v>0</v>
       </c>
@@ -19675,8 +20445,11 @@
       <c r="AW95" s="1">
         <v>0</v>
       </c>
+      <c r="AX95" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D96" s="2">
         <v>58807</v>
       </c>
@@ -19698,54 +20471,51 @@
       <c r="J96" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M96" s="1">
+      <c r="N96" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O96" s="1">
+      <c r="P96" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P96" s="1">
+      <c r="Q96" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="R96" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R96" s="1">
+      <c r="S96" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S96" s="1">
+      <c r="T96" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T96" s="1">
+      <c r="U96" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U96" s="1">
+      <c r="V96" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V96" s="1">
+      <c r="W96" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W96" s="1">
+      <c r="X96" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X96" s="1">
+      <c r="Y96" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC96" s="2">
+      <c r="AD96" s="2">
         <v>58441</v>
       </c>
-      <c r="AD96" s="1">
-        <v>0</v>
-      </c>
       <c r="AE96" s="1">
         <v>0</v>
       </c>
@@ -19803,8 +20573,11 @@
       <c r="AW96" s="1">
         <v>0</v>
       </c>
+      <c r="AX96" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D97" s="2">
         <v>59172</v>
       </c>
@@ -19826,54 +20599,51 @@
       <c r="J97" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M97" s="1">
+      <c r="N97" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N97" s="1">
+      <c r="O97" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O97" s="1">
+      <c r="P97" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P97" s="1">
+      <c r="Q97" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="R97" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R97" s="1">
+      <c r="S97" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S97" s="1">
+      <c r="T97" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T97" s="1">
+      <c r="U97" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U97" s="1">
+      <c r="V97" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V97" s="1">
+      <c r="W97" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W97" s="1">
+      <c r="X97" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X97" s="1">
+      <c r="Y97" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC97" s="2">
+      <c r="AD97" s="2">
         <v>58807</v>
       </c>
-      <c r="AD97" s="1">
-        <v>0</v>
-      </c>
       <c r="AE97" s="1">
         <v>0</v>
       </c>
@@ -19931,8 +20701,11 @@
       <c r="AW97" s="1">
         <v>0</v>
       </c>
+      <c r="AX97" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D98" s="2">
         <v>59537</v>
       </c>
@@ -19954,54 +20727,51 @@
       <c r="J98" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K98" s="1">
+      <c r="L98" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M98" s="1">
+      <c r="N98" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N98" s="1">
+      <c r="O98" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O98" s="1">
+      <c r="P98" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P98" s="1">
+      <c r="Q98" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="R98" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R98" s="1">
+      <c r="S98" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S98" s="1">
+      <c r="T98" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T98" s="1">
+      <c r="U98" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U98" s="1">
+      <c r="V98" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V98" s="1">
+      <c r="W98" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W98" s="1">
+      <c r="X98" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X98" s="1">
+      <c r="Y98" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AD98" s="2">
         <v>59172</v>
       </c>
-      <c r="AD98" s="1">
-        <v>0</v>
-      </c>
       <c r="AE98" s="1">
         <v>0</v>
       </c>
@@ -20059,8 +20829,11 @@
       <c r="AW98" s="1">
         <v>0</v>
       </c>
+      <c r="AX98" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D99" s="2">
         <v>59902</v>
       </c>
@@ -20082,54 +20855,51 @@
       <c r="J99" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O99" s="1">
+      <c r="P99" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P99" s="1">
+      <c r="Q99" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="R99" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R99" s="1">
+      <c r="S99" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S99" s="1">
+      <c r="T99" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T99" s="1">
+      <c r="U99" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U99" s="1">
+      <c r="V99" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V99" s="1">
+      <c r="W99" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W99" s="1">
+      <c r="X99" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X99" s="1">
+      <c r="Y99" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC99" s="2">
+      <c r="AD99" s="2">
         <v>59537</v>
       </c>
-      <c r="AD99" s="1">
-        <v>0</v>
-      </c>
       <c r="AE99" s="1">
         <v>0</v>
       </c>
@@ -20187,8 +20957,11 @@
       <c r="AW99" s="1">
         <v>0</v>
       </c>
+      <c r="AX99" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D100" s="2">
         <v>60268</v>
       </c>
@@ -20210,54 +20983,51 @@
       <c r="J100" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K100" s="1">
+      <c r="L100" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N100" s="1">
+      <c r="O100" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O100" s="1">
+      <c r="P100" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P100" s="1">
+      <c r="Q100" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="R100" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R100" s="1">
+      <c r="S100" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S100" s="1">
+      <c r="T100" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T100" s="1">
+      <c r="U100" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U100" s="1">
+      <c r="V100" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V100" s="1">
+      <c r="W100" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W100" s="1">
+      <c r="X100" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X100" s="1">
+      <c r="Y100" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC100" s="2">
+      <c r="AD100" s="2">
         <v>59902</v>
       </c>
-      <c r="AD100" s="1">
-        <v>0</v>
-      </c>
       <c r="AE100" s="1">
         <v>0</v>
       </c>
@@ -20315,8 +21085,11 @@
       <c r="AW100" s="1">
         <v>0</v>
       </c>
+      <c r="AX100" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D101" s="2">
         <v>60633</v>
       </c>
@@ -20338,54 +21111,51 @@
       <c r="J101" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K101" s="1">
+      <c r="L101" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M101" s="1">
+      <c r="N101" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N101" s="1">
+      <c r="O101" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O101" s="1">
+      <c r="P101" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P101" s="1">
+      <c r="Q101" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="R101" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R101" s="1">
+      <c r="S101" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S101" s="1">
+      <c r="T101" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T101" s="1">
+      <c r="U101" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U101" s="1">
+      <c r="V101" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V101" s="1">
+      <c r="W101" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W101" s="1">
+      <c r="X101" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X101" s="1">
+      <c r="Y101" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC101" s="2">
+      <c r="AD101" s="2">
         <v>60268</v>
       </c>
-      <c r="AD101" s="1">
-        <v>0</v>
-      </c>
       <c r="AE101" s="1">
         <v>0</v>
       </c>
@@ -20443,8 +21213,11 @@
       <c r="AW101" s="1">
         <v>0</v>
       </c>
+      <c r="AX101" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D102" s="2">
         <v>60998</v>
       </c>
@@ -20466,54 +21239,51 @@
       <c r="J102" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M102" s="1">
+      <c r="N102" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N102" s="1">
+      <c r="O102" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O102" s="1">
+      <c r="P102" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P102" s="1">
+      <c r="Q102" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q102" s="1">
+      <c r="R102" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R102" s="1">
+      <c r="S102" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S102" s="1">
+      <c r="T102" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T102" s="1">
+      <c r="U102" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U102" s="1">
+      <c r="V102" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V102" s="1">
+      <c r="W102" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W102" s="1">
+      <c r="X102" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X102" s="1">
+      <c r="Y102" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC102" s="2">
+      <c r="AD102" s="2">
         <v>60633</v>
       </c>
-      <c r="AD102" s="1">
-        <v>0</v>
-      </c>
       <c r="AE102" s="1">
         <v>0</v>
       </c>
@@ -20571,8 +21341,11 @@
       <c r="AW102" s="1">
         <v>0</v>
       </c>
+      <c r="AX102" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D103" s="2">
         <v>61363</v>
       </c>
@@ -20594,54 +21367,51 @@
       <c r="J103" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K103" s="1">
+      <c r="L103" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L103" s="1">
+      <c r="M103" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M103" s="1">
+      <c r="N103" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O103" s="1">
+      <c r="P103" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P103" s="1">
+      <c r="Q103" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="R103" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R103" s="1">
+      <c r="S103" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S103" s="1">
+      <c r="T103" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T103" s="1">
+      <c r="U103" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U103" s="1">
+      <c r="V103" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V103" s="1">
+      <c r="W103" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W103" s="1">
+      <c r="X103" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X103" s="1">
+      <c r="Y103" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC103" s="2">
+      <c r="AD103" s="2">
         <v>60998</v>
       </c>
-      <c r="AD103" s="1">
-        <v>0</v>
-      </c>
       <c r="AE103" s="1">
         <v>0</v>
       </c>
@@ -20699,8 +21469,11 @@
       <c r="AW103" s="1">
         <v>0</v>
       </c>
+      <c r="AX103" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D104" s="2">
         <v>61729</v>
       </c>
@@ -20722,54 +21495,51 @@
       <c r="J104" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K104" s="1">
+      <c r="L104" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L104" s="1">
+      <c r="M104" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M104" s="1">
+      <c r="N104" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P104" s="1">
+      <c r="Q104" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="R104" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R104" s="1">
+      <c r="S104" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S104" s="1">
+      <c r="T104" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T104" s="1">
+      <c r="U104" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U104" s="1">
+      <c r="V104" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V104" s="1">
+      <c r="W104" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W104" s="1">
+      <c r="X104" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X104" s="1">
+      <c r="Y104" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC104" s="2">
+      <c r="AD104" s="2">
         <v>61363</v>
       </c>
-      <c r="AD104" s="1">
-        <v>0</v>
-      </c>
       <c r="AE104" s="1">
         <v>0</v>
       </c>
@@ -20827,8 +21597,11 @@
       <c r="AW104" s="1">
         <v>0</v>
       </c>
+      <c r="AX104" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="4:49" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D105" s="2">
         <v>62094</v>
       </c>
@@ -20850,54 +21623,51 @@
       <c r="J105" s="1">
         <v>2479800957.3452401</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L105" s="1">
         <v>2863408708.1916499</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="1">
         <v>2313765811.9555802</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105" s="1">
         <v>2967752563.9106698</v>
       </c>
-      <c r="N105" s="1">
+      <c r="O105" s="1">
         <v>3430351754.7512102</v>
       </c>
-      <c r="O105" s="1">
+      <c r="P105" s="1">
         <v>2787577883.0644202</v>
       </c>
-      <c r="P105" s="1">
+      <c r="Q105" s="1">
         <v>1240436002.3824201</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="R105" s="1">
         <v>2398091917.7434001</v>
       </c>
-      <c r="R105" s="1">
+      <c r="S105" s="1">
         <v>4239558430.9110899</v>
       </c>
-      <c r="S105" s="1">
+      <c r="T105" s="1">
         <v>3239113801.7404299</v>
       </c>
-      <c r="T105" s="1">
+      <c r="U105" s="1">
         <v>4637662442.7091703</v>
       </c>
-      <c r="U105" s="1">
+      <c r="V105" s="1">
         <v>3230228570.4459901</v>
       </c>
-      <c r="V105" s="1">
+      <c r="W105" s="1">
         <v>4194506844.25562</v>
       </c>
-      <c r="W105" s="1">
+      <c r="X105" s="1">
         <v>4916292288.8715401</v>
       </c>
-      <c r="X105" s="1">
+      <c r="Y105" s="1">
         <v>2324503676.7165198</v>
       </c>
-      <c r="AC105" s="2">
+      <c r="AD105" s="2">
         <v>61729</v>
       </c>
-      <c r="AD105" s="1">
-        <v>0</v>
-      </c>
       <c r="AE105" s="1">
         <v>0</v>
       </c>
@@ -20955,14 +21725,14 @@
       <c r="AW105" s="1">
         <v>0</v>
       </c>
+      <c r="AX105" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="4:49" x14ac:dyDescent="0.2">
-      <c r="AC106" s="2">
+    <row r="106" spans="4:50" x14ac:dyDescent="0.2">
+      <c r="AD106" s="2">
         <v>62094</v>
       </c>
-      <c r="AD106" s="1">
-        <v>0</v>
-      </c>
       <c r="AE106" s="1">
         <v>0</v>
       </c>
@@ -21018,12 +21788,15 @@
         <v>0</v>
       </c>
       <c r="AW106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX106" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B22:H22">
+  <conditionalFormatting sqref="B22:K22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -21035,7 +21808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:H23">
+  <conditionalFormatting sqref="B23:K23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
